--- a/Jogos_da_Semana_FlashScore_2024-09-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-20.xlsx
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H3" t="n">
         <v>3.5</v>
       </c>
       <c r="I3" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J3" t="n">
         <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.88</v>
       </c>
       <c r="K3" t="n">
         <v>2.25</v>
       </c>
       <c r="L3" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
@@ -989,7 +989,7 @@
         <v>23</v>
       </c>
       <c r="AA3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="n">
         <v>23</v>
@@ -1010,10 +1010,10 @@
         <v>126</v>
       </c>
       <c r="AH3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ3" t="n">
         <v>11</v>
@@ -1031,10 +1031,10 @@
         <v>4.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ3" t="n">
         <v>41</v>
@@ -1049,7 +1049,7 @@
         <v>3.25</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV3" t="n">
         <v>41</v>
@@ -1317,10 +1317,10 @@
         <v>6.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P5" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q5" t="n">
         <v>2.63</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
+        <v>7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J6" t="n">
         <v>6.5</v>
       </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="J6" t="n">
-        <v>6</v>
-      </c>
       <c r="K6" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L6" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
@@ -1499,16 +1499,16 @@
         <v>19</v>
       </c>
       <c r="O6" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R6" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S6" t="n">
         <v>1.25</v>
@@ -1526,7 +1526,7 @@
         <v>21</v>
       </c>
       <c r="X6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y6" t="n">
         <v>19</v>
@@ -1541,13 +1541,13 @@
         <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="n">
         <v>51</v>
@@ -1556,13 +1556,13 @@
         <v>201</v>
       </c>
       <c r="AH6" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AI6" t="n">
         <v>8</v>
       </c>
       <c r="AJ6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK6" t="n">
         <v>10</v>
@@ -1574,7 +1574,7 @@
         <v>21</v>
       </c>
       <c r="AN6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AO6" t="n">
         <v>34</v>
@@ -1604,22 +1604,22 @@
         <v>3.6</v>
       </c>
       <c r="AX6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AY6" t="n">
         <v>15</v>
       </c>
       <c r="AZ6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BB6" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC6" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BD6" t="n">
         <v>151</v>
@@ -2039,10 +2039,10 @@
         <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.57</v>
@@ -2063,10 +2063,10 @@
         <v>2.2</v>
       </c>
       <c r="U9" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V9" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W9" t="n">
         <v>5</v>
@@ -2087,7 +2087,7 @@
         <v>41</v>
       </c>
       <c r="AC9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD9" t="n">
         <v>6</v>
@@ -2105,7 +2105,7 @@
         <v>8.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ9" t="n">
         <v>17</v>
@@ -2162,7 +2162,7 @@
         <v>151</v>
       </c>
       <c r="BB9" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BC9" t="n">
         <v>126</v>
@@ -2752,7 +2752,7 @@
         <v>2.22</v>
       </c>
       <c r="H13" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="I13" t="n">
         <v>2.85</v>
@@ -2761,10 +2761,10 @@
         <v>2.75</v>
       </c>
       <c r="K13" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="L13" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="M13" t="n">
         <v>1.04</v>
@@ -2773,7 +2773,7 @@
         <v>8.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -2785,43 +2785,43 @@
         <v>2.2</v>
       </c>
       <c r="S13" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="T13" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="U13" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="V13" t="n">
         <v>2.32</v>
       </c>
       <c r="W13" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="X13" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y13" t="n">
         <v>9</v>
       </c>
       <c r="Z13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA13" t="n">
         <v>16</v>
       </c>
       <c r="AB13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC13" t="n">
         <v>8.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AE13" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AF13" t="n">
         <v>40</v>
@@ -2830,7 +2830,7 @@
         <v>250</v>
       </c>
       <c r="AH13" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AI13" t="n">
         <v>16.5</v>
@@ -2842,13 +2842,13 @@
         <v>35</v>
       </c>
       <c r="AL13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM13" t="n">
         <v>25</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="AO13" t="n">
         <v>11.25</v>
@@ -2860,13 +2860,13 @@
         <v>40</v>
       </c>
       <c r="AR13" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AS13" t="n">
         <v>175</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AU13" t="n">
         <v>6.6</v>
@@ -2878,16 +2878,16 @@
         <v>5</v>
       </c>
       <c r="AX13" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AY13" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AZ13" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BA13" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BB13" t="n">
         <v>200</v>
@@ -2934,25 +2934,25 @@
         <v>2.12</v>
       </c>
       <c r="H14" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I14" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J14" t="n">
         <v>2.7</v>
       </c>
       <c r="K14" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L14" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="M14" t="n">
         <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="O14" t="n">
         <v>1.33</v>
@@ -2967,43 +2967,43 @@
         <v>1.75</v>
       </c>
       <c r="S14" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T14" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="U14" t="n">
         <v>1.8</v>
       </c>
       <c r="V14" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="W14" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X14" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="Y14" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z14" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AA14" t="n">
         <v>17.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC14" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AE14" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF14" t="n">
         <v>70</v>
@@ -3012,7 +3012,7 @@
         <v>600</v>
       </c>
       <c r="AH14" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AI14" t="n">
         <v>16.5</v>
@@ -3024,7 +3024,7 @@
         <v>40</v>
       </c>
       <c r="AL14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM14" t="n">
         <v>37</v>
@@ -3033,7 +3033,7 @@
         <v>4.05</v>
       </c>
       <c r="AO14" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AP14" t="n">
         <v>19</v>
@@ -3048,7 +3048,7 @@
         <v>250</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="AU14" t="n">
         <v>7.1</v>
@@ -3057,19 +3057,19 @@
         <v>60</v>
       </c>
       <c r="AW14" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AX14" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AY14" t="n">
         <v>24</v>
       </c>
       <c r="AZ14" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BA14" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BB14" t="n">
         <v>300</v>
@@ -3146,7 +3146,7 @@
         <v>2.1</v>
       </c>
       <c r="R15" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S15" t="n">
         <v>1.44</v>
@@ -3325,7 +3325,7 @@
         <v>5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="R16" t="n">
         <v>2.35</v>
@@ -3841,13 +3841,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I19" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J19" t="n">
         <v>2.1</v>
@@ -3862,7 +3862,7 @@
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O19" t="n">
         <v>1.22</v>
@@ -3889,7 +3889,7 @@
         <v>1.91</v>
       </c>
       <c r="W19" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X19" t="n">
         <v>8</v>
@@ -3898,10 +3898,10 @@
         <v>8.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB19" t="n">
         <v>23</v>
@@ -3922,13 +3922,13 @@
         <v>201</v>
       </c>
       <c r="AH19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI19" t="n">
         <v>29</v>
       </c>
       <c r="AJ19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK19" t="n">
         <v>51</v>
@@ -3970,7 +3970,7 @@
         <v>7</v>
       </c>
       <c r="AX19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY19" t="n">
         <v>34</v>
@@ -4587,22 +4587,22 @@
         <v>5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O23" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P23" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R23" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S23" t="n">
         <v>1.5</v>
@@ -5115,13 +5115,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H26" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I26" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="J26" t="n">
         <v>3.75</v>
@@ -5130,13 +5130,13 @@
         <v>2.2</v>
       </c>
       <c r="L26" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M26" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O26" t="n">
         <v>1.29</v>
@@ -5214,10 +5214,10 @@
         <v>23</v>
       </c>
       <c r="AN26" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP26" t="n">
         <v>26</v>
@@ -5843,22 +5843,22 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="H30" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I30" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="J30" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="K30" t="n">
         <v>2.63</v>
       </c>
       <c r="L30" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="M30" t="n">
         <v>1.01</v>
@@ -5867,16 +5867,16 @@
         <v>23</v>
       </c>
       <c r="O30" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="P30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R30" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="S30" t="n">
         <v>1.2</v>
@@ -5885,34 +5885,34 @@
         <v>4.33</v>
       </c>
       <c r="U30" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V30" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W30" t="n">
         <v>21</v>
       </c>
       <c r="X30" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y30" t="n">
         <v>13</v>
       </c>
       <c r="Z30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC30" t="n">
         <v>26</v>
       </c>
       <c r="AD30" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE30" t="n">
         <v>10</v>
@@ -5933,28 +5933,28 @@
         <v>9.5</v>
       </c>
       <c r="AK30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM30" t="n">
         <v>17</v>
       </c>
       <c r="AN30" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ30" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR30" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS30" t="n">
         <v>81</v>
@@ -5969,19 +5969,19 @@
         <v>34</v>
       </c>
       <c r="AW30" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX30" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AY30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ30" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA30" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BB30" t="n">
         <v>67</v>
@@ -6025,16 +6025,16 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="H31" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I31" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="J31" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K31" t="n">
         <v>2.4</v>
@@ -6067,16 +6067,16 @@
         <v>3.4</v>
       </c>
       <c r="U31" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V31" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W31" t="n">
         <v>17</v>
       </c>
       <c r="X31" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y31" t="n">
         <v>15</v>
@@ -6094,10 +6094,10 @@
         <v>15</v>
       </c>
       <c r="AD31" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF31" t="n">
         <v>41</v>
@@ -6124,13 +6124,13 @@
         <v>21</v>
       </c>
       <c r="AN31" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AO31" t="n">
         <v>23</v>
       </c>
       <c r="AP31" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ31" t="n">
         <v>81</v>
@@ -6154,13 +6154,13 @@
         <v>3.75</v>
       </c>
       <c r="AX31" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AY31" t="n">
         <v>17</v>
       </c>
       <c r="AZ31" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA31" t="n">
         <v>41</v>
@@ -6577,7 +6577,7 @@
         <v>3.4</v>
       </c>
       <c r="I34" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J34" t="n">
         <v>2.88</v>
@@ -6601,10 +6601,10 @@
         <v>2.63</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R34" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S34" t="n">
         <v>1.53</v>
@@ -6655,7 +6655,7 @@
         <v>8</v>
       </c>
       <c r="AI34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ34" t="n">
         <v>13</v>
@@ -6700,7 +6700,7 @@
         <v>5.5</v>
       </c>
       <c r="AX34" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY34" t="n">
         <v>34</v>
@@ -6953,10 +6953,10 @@
         <v>5</v>
       </c>
       <c r="M36" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N36" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O36" t="n">
         <v>1.3</v>
@@ -7481,13 +7481,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H39" t="n">
         <v>3.3</v>
       </c>
       <c r="I39" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J39" t="n">
         <v>3.25</v>
@@ -7496,7 +7496,7 @@
         <v>2.2</v>
       </c>
       <c r="L39" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M39" t="n">
         <v>1.05</v>
@@ -7529,7 +7529,7 @@
         <v>2</v>
       </c>
       <c r="W39" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X39" t="n">
         <v>13</v>
@@ -7589,7 +7589,7 @@
         <v>23</v>
       </c>
       <c r="AQ39" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR39" t="n">
         <v>67</v>
@@ -8209,13 +8209,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="H43" t="n">
         <v>4.1</v>
       </c>
       <c r="I43" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="J43" t="n">
         <v>5.5</v>
@@ -8251,10 +8251,10 @@
         <v>3.25</v>
       </c>
       <c r="U43" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V43" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W43" t="n">
         <v>17</v>
@@ -8281,7 +8281,7 @@
         <v>8</v>
       </c>
       <c r="AE43" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF43" t="n">
         <v>51</v>
@@ -8290,7 +8290,7 @@
         <v>201</v>
       </c>
       <c r="AH43" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI43" t="n">
         <v>8</v>
@@ -8299,7 +8299,7 @@
         <v>8.5</v>
       </c>
       <c r="AK43" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL43" t="n">
         <v>12</v>
@@ -8308,13 +8308,13 @@
         <v>23</v>
       </c>
       <c r="AN43" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AO43" t="n">
         <v>29</v>
       </c>
       <c r="AP43" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ43" t="n">
         <v>101</v>
@@ -8338,7 +8338,7 @@
         <v>3.6</v>
       </c>
       <c r="AX43" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AY43" t="n">
         <v>17</v>
@@ -8350,7 +8350,7 @@
         <v>41</v>
       </c>
       <c r="BB43" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC43" t="n">
         <v>51</v>
@@ -8755,16 +8755,16 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H46" t="n">
         <v>3.2</v>
       </c>
       <c r="I46" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J46" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K46" t="n">
         <v>1.83</v>
@@ -8806,7 +8806,7 @@
         <v>5</v>
       </c>
       <c r="X46" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y46" t="n">
         <v>10</v>
@@ -8839,10 +8839,10 @@
         <v>7</v>
       </c>
       <c r="AI46" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ46" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK46" t="n">
         <v>41</v>
@@ -8863,7 +8863,7 @@
         <v>29</v>
       </c>
       <c r="AQ46" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR46" t="n">
         <v>81</v>
@@ -8884,13 +8884,13 @@
         <v>5.5</v>
       </c>
       <c r="AX46" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY46" t="n">
         <v>41</v>
       </c>
       <c r="AZ46" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA46" t="n">
         <v>151</v>
@@ -8937,13 +8937,13 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H47" t="n">
         <v>4.1</v>
       </c>
       <c r="I47" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J47" t="n">
         <v>2.1</v>
@@ -8952,7 +8952,7 @@
         <v>2.4</v>
       </c>
       <c r="L47" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M47" t="n">
         <v>1.03</v>
@@ -8988,7 +8988,7 @@
         <v>8</v>
       </c>
       <c r="X47" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y47" t="n">
         <v>8.5</v>
@@ -9000,7 +9000,7 @@
         <v>12</v>
       </c>
       <c r="AB47" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC47" t="n">
         <v>15</v>
@@ -9009,7 +9009,7 @@
         <v>8.5</v>
       </c>
       <c r="AE47" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF47" t="n">
         <v>51</v>
@@ -9021,10 +9021,10 @@
         <v>15</v>
       </c>
       <c r="AI47" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ47" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK47" t="n">
         <v>51</v>
@@ -9036,7 +9036,7 @@
         <v>41</v>
       </c>
       <c r="AN47" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO47" t="n">
         <v>8</v>
@@ -9066,19 +9066,19 @@
         <v>7</v>
       </c>
       <c r="AX47" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY47" t="n">
         <v>29</v>
       </c>
       <c r="AZ47" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA47" t="n">
         <v>101</v>
       </c>
       <c r="BB47" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC47" t="n">
         <v>501</v>
@@ -9301,22 +9301,22 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="H49" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="I49" t="n">
-        <v>14.5</v>
+        <v>11.25</v>
       </c>
       <c r="J49" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="K49" t="n">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="L49" t="n">
-        <v>10</v>
+        <v>8.25</v>
       </c>
       <c r="M49" t="n">
         <v>1.01</v>
@@ -9328,7 +9328,7 @@
         <v>1.04</v>
       </c>
       <c r="P49" t="n">
-        <v>6.4</v>
+        <v>6.35</v>
       </c>
       <c r="Q49" t="n">
         <v>1.26</v>
@@ -9343,16 +9343,16 @@
         <v>4.45</v>
       </c>
       <c r="U49" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="V49" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="W49" t="n">
         <v>10.25</v>
       </c>
       <c r="X49" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="Y49" t="n">
         <v>8.5</v>
@@ -9364,16 +9364,16 @@
         <v>8.25</v>
       </c>
       <c r="AB49" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC49" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AD49" t="n">
         <v>12.5</v>
       </c>
       <c r="AE49" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF49" t="n">
         <v>50</v>
@@ -9382,43 +9382,43 @@
         <v>250</v>
       </c>
       <c r="AH49" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AI49" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="AJ49" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AK49" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="AL49" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="AM49" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AN49" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AO49" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="AP49" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AQ49" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AR49" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS49" t="n">
         <v>100</v>
       </c>
       <c r="AT49" t="n">
-        <v>4.45</v>
+        <v>4.6</v>
       </c>
       <c r="AU49" t="n">
         <v>8.25</v>
@@ -9427,22 +9427,22 @@
         <v>50</v>
       </c>
       <c r="AW49" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="AX49" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AY49" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AZ49" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="BA49" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="BB49" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BC49" t="n">
         <v>500</v>
@@ -9847,22 +9847,22 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="H52" t="n">
         <v>4</v>
       </c>
       <c r="I52" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="J52" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K52" t="n">
         <v>2.3</v>
       </c>
       <c r="L52" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="M52" t="n">
         <v>1.03</v>
@@ -9901,10 +9901,10 @@
         <v>23</v>
       </c>
       <c r="Y52" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z52" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA52" t="n">
         <v>34</v>
@@ -9937,7 +9937,7 @@
         <v>8.5</v>
       </c>
       <c r="AK52" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL52" t="n">
         <v>13</v>
@@ -9955,7 +9955,7 @@
         <v>29</v>
       </c>
       <c r="AQ52" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR52" t="n">
         <v>81</v>
@@ -9973,13 +9973,13 @@
         <v>51</v>
       </c>
       <c r="AW52" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AX52" t="n">
         <v>9</v>
       </c>
       <c r="AY52" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ52" t="n">
         <v>29</v>
@@ -9988,7 +9988,7 @@
         <v>41</v>
       </c>
       <c r="BB52" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC52" t="n">
         <v>501</v>
@@ -10393,13 +10393,13 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H55" t="n">
         <v>3.4</v>
       </c>
       <c r="I55" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J55" t="n">
         <v>3</v>
@@ -10408,7 +10408,7 @@
         <v>2.25</v>
       </c>
       <c r="L55" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M55" t="n">
         <v>1.04</v>
@@ -10441,22 +10441,22 @@
         <v>2.2</v>
       </c>
       <c r="W55" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X55" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y55" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z55" t="n">
         <v>23</v>
       </c>
       <c r="AA55" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB55" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC55" t="n">
         <v>12</v>
@@ -10489,7 +10489,7 @@
         <v>21</v>
       </c>
       <c r="AM55" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN55" t="n">
         <v>4.5</v>
@@ -10525,7 +10525,7 @@
         <v>15</v>
       </c>
       <c r="AY55" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ55" t="n">
         <v>51</v>
@@ -10575,22 +10575,22 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H56" t="n">
         <v>3.5</v>
       </c>
       <c r="I56" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J56" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K56" t="n">
         <v>2.38</v>
       </c>
       <c r="L56" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M56" t="n">
         <v>1.03</v>
@@ -10611,10 +10611,10 @@
         <v>2.3</v>
       </c>
       <c r="S56" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T56" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U56" t="n">
         <v>1.5</v>
@@ -10635,7 +10635,7 @@
         <v>21</v>
       </c>
       <c r="AA56" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB56" t="n">
         <v>21</v>
@@ -10659,13 +10659,13 @@
         <v>13</v>
       </c>
       <c r="AI56" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ56" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK56" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL56" t="n">
         <v>21</v>
@@ -10674,7 +10674,7 @@
         <v>26</v>
       </c>
       <c r="AN56" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO56" t="n">
         <v>12</v>
@@ -10692,7 +10692,7 @@
         <v>101</v>
       </c>
       <c r="AT56" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU56" t="n">
         <v>7</v>
@@ -10701,7 +10701,7 @@
         <v>41</v>
       </c>
       <c r="AW56" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX56" t="n">
         <v>15</v>
@@ -10710,7 +10710,7 @@
         <v>21</v>
       </c>
       <c r="AZ56" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA56" t="n">
         <v>51</v>
@@ -10969,10 +10969,10 @@
         <v>4.5</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R58" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S58" t="n">
         <v>1.3</v>
@@ -11151,10 +11151,10 @@
         <v>6</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R59" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S59" t="n">
         <v>1.25</v>
@@ -12031,22 +12031,22 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H64" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I64" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="J64" t="n">
         <v>4.75</v>
       </c>
       <c r="K64" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L64" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="M64" t="n">
         <v>1.03</v>
@@ -12085,19 +12085,19 @@
         <v>29</v>
       </c>
       <c r="Y64" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC64" t="n">
         <v>15</v>
-      </c>
-      <c r="Z64" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA64" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB64" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC64" t="n">
-        <v>13</v>
       </c>
       <c r="AD64" t="n">
         <v>7.5</v>
@@ -12166,7 +12166,7 @@
         <v>17</v>
       </c>
       <c r="AZ64" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA64" t="n">
         <v>41</v>
@@ -12219,7 +12219,7 @@
         <v>3.4</v>
       </c>
       <c r="I65" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J65" t="n">
         <v>2.6</v>
@@ -12243,10 +12243,10 @@
         <v>2.75</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R65" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S65" t="n">
         <v>1.5</v>
@@ -12255,10 +12255,10 @@
         <v>2.5</v>
       </c>
       <c r="U65" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V65" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W65" t="n">
         <v>6</v>
@@ -12294,7 +12294,7 @@
         <v>351</v>
       </c>
       <c r="AH65" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI65" t="n">
         <v>21</v>
@@ -12321,7 +12321,7 @@
         <v>23</v>
       </c>
       <c r="AQ65" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR65" t="n">
         <v>67</v>
@@ -12348,13 +12348,13 @@
         <v>34</v>
       </c>
       <c r="AZ65" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA65" t="n">
         <v>126</v>
       </c>
       <c r="BB65" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC65" t="n">
         <v>51</v>
@@ -12419,16 +12419,16 @@
         <v>6.5</v>
       </c>
       <c r="O66" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P66" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R66" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S66" t="n">
         <v>1.57</v>
@@ -12595,10 +12595,10 @@
         <v>3.75</v>
       </c>
       <c r="M67" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N67" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O67" t="n">
         <v>1.22</v>
@@ -12607,10 +12607,10 @@
         <v>4</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R67" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S67" t="n">
         <v>1.33</v>
@@ -12759,16 +12759,16 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="H68" t="n">
         <v>4.75</v>
       </c>
       <c r="I68" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J68" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K68" t="n">
         <v>2.5</v>
@@ -12807,16 +12807,16 @@
         <v>1.83</v>
       </c>
       <c r="W68" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X68" t="n">
         <v>7.5</v>
       </c>
       <c r="Y68" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z68" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA68" t="n">
         <v>12</v>
@@ -12846,7 +12846,7 @@
         <v>34</v>
       </c>
       <c r="AJ68" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK68" t="n">
         <v>67</v>
@@ -12858,16 +12858,16 @@
         <v>41</v>
       </c>
       <c r="AN68" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO68" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP68" t="n">
         <v>17</v>
       </c>
       <c r="AQ68" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR68" t="n">
         <v>41</v>
@@ -12894,13 +12894,13 @@
         <v>34</v>
       </c>
       <c r="AZ68" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA68" t="n">
         <v>126</v>
       </c>
       <c r="BB68" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BC68" t="n">
         <v>81</v>
@@ -12941,22 +12941,22 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H69" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I69" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="J69" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K69" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L69" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M69" t="n">
         <v>1.01</v>
@@ -13010,10 +13010,10 @@
         <v>15</v>
       </c>
       <c r="AD69" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE69" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF69" t="n">
         <v>41</v>
@@ -13025,7 +13025,7 @@
         <v>9.5</v>
       </c>
       <c r="AI69" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ69" t="n">
         <v>8.5</v>
@@ -13034,7 +13034,7 @@
         <v>13</v>
       </c>
       <c r="AL69" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM69" t="n">
         <v>21</v>
@@ -13043,7 +13043,7 @@
         <v>6.5</v>
       </c>
       <c r="AO69" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP69" t="n">
         <v>26</v>
@@ -13070,7 +13070,7 @@
         <v>4</v>
       </c>
       <c r="AX69" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AY69" t="n">
         <v>17</v>
@@ -13201,7 +13201,7 @@
         <v>67</v>
       </c>
       <c r="AG70" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AH70" t="n">
         <v>10</v>
@@ -13490,19 +13490,19 @@
         <v>2.85</v>
       </c>
       <c r="H72" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I72" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="J72" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K72" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L72" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="M72" t="n">
         <v>1.05</v>
@@ -13529,28 +13529,28 @@
         <v>3</v>
       </c>
       <c r="U72" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="V72" t="n">
         <v>2.32</v>
       </c>
       <c r="W72" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="X72" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y72" t="n">
         <v>10</v>
       </c>
       <c r="Z72" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AA72" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB72" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC72" t="n">
         <v>8</v>
@@ -13559,7 +13559,7 @@
         <v>6.6</v>
       </c>
       <c r="AE72" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AF72" t="n">
         <v>40</v>
@@ -13568,10 +13568,10 @@
         <v>250</v>
       </c>
       <c r="AH72" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AI72" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AJ72" t="n">
         <v>9</v>
@@ -13580,7 +13580,7 @@
         <v>25</v>
       </c>
       <c r="AL72" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AM72" t="n">
         <v>22</v>
@@ -13592,13 +13592,13 @@
         <v>15</v>
       </c>
       <c r="AP72" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AQ72" t="n">
         <v>65</v>
       </c>
       <c r="AR72" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AS72" t="n">
         <v>200</v>
@@ -13607,7 +13607,7 @@
         <v>3</v>
       </c>
       <c r="AU72" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AV72" t="n">
         <v>45</v>
@@ -13616,16 +13616,16 @@
         <v>4.5</v>
       </c>
       <c r="AX72" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AY72" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AZ72" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="BA72" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BB72" t="n">
         <v>175</v>
@@ -13857,7 +13857,7 @@
         <v>3.95</v>
       </c>
       <c r="I74" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="J74" t="n">
         <v>2.18</v>
@@ -13866,7 +13866,7 @@
         <v>2.3</v>
       </c>
       <c r="L74" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="M74" t="n">
         <v>1.04</v>
@@ -13875,7 +13875,7 @@
         <v>8.5</v>
       </c>
       <c r="O74" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P74" t="n">
         <v>3.9</v>
@@ -13911,7 +13911,7 @@
         <v>13</v>
       </c>
       <c r="AA74" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AB74" t="n">
         <v>22</v>
@@ -13932,7 +13932,7 @@
         <v>400</v>
       </c>
       <c r="AH74" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI74" t="n">
         <v>28</v>
@@ -13953,10 +13953,10 @@
         <v>3.65</v>
       </c>
       <c r="AO74" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AP74" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AQ74" t="n">
         <v>25</v>
@@ -13980,19 +13980,19 @@
         <v>6.4</v>
       </c>
       <c r="AX74" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY74" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ74" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BA74" t="n">
         <v>150</v>
       </c>
       <c r="BB74" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC74" t="n">
         <v>51</v>
@@ -14224,7 +14224,7 @@
         <v>3</v>
       </c>
       <c r="J76" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K76" t="n">
         <v>1.91</v>
@@ -14329,7 +14329,7 @@
         <v>81</v>
       </c>
       <c r="AS76" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT76" t="n">
         <v>2.25</v>
@@ -14761,22 +14761,22 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="H79" t="n">
         <v>3.1</v>
       </c>
       <c r="I79" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J79" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K79" t="n">
         <v>2.07</v>
       </c>
       <c r="L79" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M79" t="n">
         <v>1.01</v>
@@ -14788,13 +14788,13 @@
         <v>1.3</v>
       </c>
       <c r="P79" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R79" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S79" t="n">
         <v>1.39</v>
@@ -14809,7 +14809,7 @@
         <v>1.98</v>
       </c>
       <c r="W79" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="X79" t="n">
         <v>12.5</v>
@@ -14821,13 +14821,13 @@
         <v>27</v>
       </c>
       <c r="AA79" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB79" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC79" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AD79" t="n">
         <v>6</v>
@@ -14836,16 +14836,16 @@
         <v>13</v>
       </c>
       <c r="AF79" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG79" t="n">
         <v>450</v>
       </c>
       <c r="AH79" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI79" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ79" t="n">
         <v>10</v>
@@ -14854,28 +14854,28 @@
         <v>35</v>
       </c>
       <c r="AL79" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM79" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AN79" t="n">
         <v>4.4</v>
       </c>
       <c r="AO79" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AP79" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ79" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR79" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AS79" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT79" t="n">
         <v>2.57</v>
@@ -14887,19 +14887,19 @@
         <v>55</v>
       </c>
       <c r="AW79" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="AX79" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AY79" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ79" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="BA79" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BB79" t="n">
         <v>250</v>
@@ -14949,13 +14949,13 @@
         <v>3.65</v>
       </c>
       <c r="I80" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J80" t="n">
         <v>2.07</v>
       </c>
       <c r="K80" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L80" t="n">
         <v>5.7</v>
@@ -14967,13 +14967,13 @@
         <v>7.9</v>
       </c>
       <c r="O80" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P80" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="R80" t="n">
         <v>1.7</v>
@@ -15000,7 +15000,7 @@
         <v>8.25</v>
       </c>
       <c r="Z80" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AA80" t="n">
         <v>13.5</v>
@@ -15012,7 +15012,7 @@
         <v>9</v>
       </c>
       <c r="AD80" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AE80" t="n">
         <v>19</v>
@@ -15021,16 +15021,16 @@
         <v>100</v>
       </c>
       <c r="AG80" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AH80" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AI80" t="n">
         <v>35</v>
       </c>
       <c r="AJ80" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AK80" t="n">
         <v>120</v>
@@ -15045,7 +15045,7 @@
         <v>3.3</v>
       </c>
       <c r="AO80" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AP80" t="n">
         <v>17.5</v>
@@ -15060,16 +15060,16 @@
         <v>250</v>
       </c>
       <c r="AT80" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="AU80" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AV80" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AW80" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AX80" t="n">
         <v>35</v>
@@ -15125,22 +15125,22 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="H81" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I81" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J81" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="K81" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L81" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="M81" t="n">
         <v>1.09</v>
@@ -15167,13 +15167,13 @@
         <v>2.67</v>
       </c>
       <c r="U81" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="V81" t="n">
         <v>1.75</v>
       </c>
       <c r="W81" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="X81" t="n">
         <v>8.25</v>
@@ -15182,7 +15182,7 @@
         <v>8.5</v>
       </c>
       <c r="Z81" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA81" t="n">
         <v>16.5</v>
@@ -15200,7 +15200,7 @@
         <v>17</v>
       </c>
       <c r="AF81" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG81" t="n">
         <v>900</v>
@@ -15227,13 +15227,13 @@
         <v>3.7</v>
       </c>
       <c r="AO81" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AP81" t="n">
         <v>18.5</v>
       </c>
       <c r="AQ81" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AR81" t="n">
         <v>65</v>
@@ -15245,22 +15245,22 @@
         <v>2.67</v>
       </c>
       <c r="AU81" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AV81" t="n">
         <v>70</v>
       </c>
       <c r="AW81" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AX81" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY81" t="n">
         <v>30</v>
       </c>
       <c r="AZ81" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BA81" t="n">
         <v>175</v>
@@ -15307,19 +15307,19 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="H82" t="n">
-        <v>4.2</v>
+        <v>4.35</v>
       </c>
       <c r="I82" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="J82" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="K82" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="L82" t="n">
         <v>1.83</v>
@@ -15328,55 +15328,55 @@
         <v>1.05</v>
       </c>
       <c r="N82" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="O82" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P82" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R82" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S82" t="n">
         <v>1.35</v>
       </c>
       <c r="T82" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="U82" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V82" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="W82" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="X82" t="n">
         <v>55</v>
       </c>
       <c r="Y82" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z82" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AA82" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB82" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AC82" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AD82" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AE82" t="n">
         <v>21</v>
@@ -15391,19 +15391,19 @@
         <v>6.6</v>
       </c>
       <c r="AI82" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AJ82" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK82" t="n">
         <v>8.25</v>
       </c>
-      <c r="AK82" t="n">
-        <v>8.75</v>
-      </c>
       <c r="AL82" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AM82" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN82" t="n">
         <v>9</v>
@@ -15412,25 +15412,25 @@
         <v>50</v>
       </c>
       <c r="AP82" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AQ82" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AR82" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AS82" t="n">
         <v>500</v>
       </c>
       <c r="AT82" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="AU82" t="n">
         <v>8.5</v>
       </c>
       <c r="AV82" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AW82" t="n">
         <v>3.15</v>
@@ -15439,13 +15439,13 @@
         <v>6.1</v>
       </c>
       <c r="AY82" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AZ82" t="n">
         <v>17</v>
       </c>
       <c r="BA82" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="BB82" t="n">
         <v>250</v>
@@ -15489,64 +15489,64 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="H83" t="n">
-        <v>4.15</v>
+        <v>4.05</v>
       </c>
       <c r="I83" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="J83" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="K83" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="L83" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="M83" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N83" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="O83" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P83" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R83" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S83" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="T83" t="n">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="U83" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="V83" t="n">
         <v>1.53</v>
       </c>
       <c r="W83" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="X83" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="Y83" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Z83" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AA83" t="n">
         <v>150</v>
@@ -15555,10 +15555,10 @@
         <v>120</v>
       </c>
       <c r="AC83" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AD83" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AE83" t="n">
         <v>26</v>
@@ -15573,25 +15573,25 @@
         <v>5.3</v>
       </c>
       <c r="AI83" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AJ83" t="n">
         <v>8.75</v>
       </c>
       <c r="AK83" t="n">
-        <v>7.7</v>
+        <v>8.25</v>
       </c>
       <c r="AL83" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AM83" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AN83" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="AO83" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AP83" t="n">
         <v>60</v>
@@ -15606,31 +15606,31 @@
         <v>400</v>
       </c>
       <c r="AT83" t="n">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="AU83" t="n">
         <v>9.25</v>
       </c>
       <c r="AV83" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AW83" t="n">
         <v>3</v>
       </c>
       <c r="AX83" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AY83" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AZ83" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="BA83" t="n">
         <v>55</v>
       </c>
       <c r="BB83" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC83" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-09-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-20.xlsx
@@ -750,7 +750,7 @@
         <v>1.5</v>
       </c>
       <c r="H2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I2" t="n">
         <v>6.5</v>
@@ -822,7 +822,7 @@
         <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG2" t="n">
         <v>351</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H3" t="n">
         <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J3" t="n">
         <v>3</v>
@@ -989,7 +989,7 @@
         <v>23</v>
       </c>
       <c r="AA3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB3" t="n">
         <v>23</v>
@@ -1010,7 +1010,7 @@
         <v>126</v>
       </c>
       <c r="AH3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI3" t="n">
         <v>15</v>
@@ -1111,28 +1111,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="J4" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K4" t="n">
         <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.4</v>
@@ -1159,10 +1159,10 @@
         <v>1.8</v>
       </c>
       <c r="W4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y4" t="n">
         <v>9</v>
@@ -1174,7 +1174,7 @@
         <v>19</v>
       </c>
       <c r="AB4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC4" t="n">
         <v>8.5</v>
@@ -1198,13 +1198,13 @@
         <v>17</v>
       </c>
       <c r="AJ4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK4" t="n">
         <v>41</v>
       </c>
       <c r="AL4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM4" t="n">
         <v>41</v>
@@ -1234,7 +1234,7 @@
         <v>8.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW4" t="n">
         <v>5.5</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
@@ -1302,7 +1302,7 @@
         <v>2.8</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K5" t="n">
         <v>1.91</v>
@@ -1335,10 +1335,10 @@
         <v>2.25</v>
       </c>
       <c r="U5" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W5" t="n">
         <v>6.5</v>
@@ -1481,7 +1481,7 @@
         <v>5.25</v>
       </c>
       <c r="I6" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="J6" t="n">
         <v>6.5</v>
@@ -1505,10 +1505,10 @@
         <v>5.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R6" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S6" t="n">
         <v>1.25</v>
@@ -1517,22 +1517,22 @@
         <v>3.75</v>
       </c>
       <c r="U6" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W6" t="n">
         <v>21</v>
       </c>
       <c r="X6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y6" t="n">
         <v>19</v>
       </c>
       <c r="Z6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AA6" t="n">
         <v>41</v>
@@ -1544,7 +1544,7 @@
         <v>19</v>
       </c>
       <c r="AD6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE6" t="n">
         <v>19</v>
@@ -1589,7 +1589,7 @@
         <v>101</v>
       </c>
       <c r="AS6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT6" t="n">
         <v>3.75</v>
@@ -1598,7 +1598,7 @@
         <v>8</v>
       </c>
       <c r="AV6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW6" t="n">
         <v>3.6</v>
@@ -1839,28 +1839,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H8" t="n">
         <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K8" t="n">
         <v>2.05</v>
       </c>
       <c r="L8" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.4</v>
@@ -1911,7 +1911,7 @@
         <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="n">
         <v>67</v>
@@ -1941,7 +1941,7 @@
         <v>3.75</v>
       </c>
       <c r="AO8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP8" t="n">
         <v>23</v>
@@ -1968,7 +1968,7 @@
         <v>6</v>
       </c>
       <c r="AX8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY8" t="n">
         <v>34</v>
@@ -2021,40 +2021,40 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>4.33</v>
+        <v>5.25</v>
       </c>
       <c r="J9" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="K9" t="n">
         <v>1.91</v>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P9" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R9" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S9" t="n">
         <v>1.62</v>
@@ -2072,58 +2072,58 @@
         <v>5</v>
       </c>
       <c r="X9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB9" t="n">
         <v>41</v>
       </c>
       <c r="AC9" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF9" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG9" t="n">
         <v>201</v>
       </c>
       <c r="AH9" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK9" t="n">
         <v>51</v>
       </c>
       <c r="AL9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP9" t="n">
         <v>29</v>
@@ -2147,19 +2147,19 @@
         <v>81</v>
       </c>
       <c r="AW9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AY9" t="n">
         <v>41</v>
       </c>
       <c r="AZ9" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA9" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB9" t="n">
         <v>501</v>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H10" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="J10" t="n">
         <v>3.6</v>
       </c>
       <c r="K10" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="L10" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
@@ -2239,10 +2239,10 @@
         <v>2.15</v>
       </c>
       <c r="S10" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="T10" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="U10" t="n">
         <v>1.6</v>
@@ -2257,7 +2257,7 @@
         <v>18.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="Z10" t="n">
         <v>40</v>
@@ -2266,7 +2266,7 @@
         <v>25</v>
       </c>
       <c r="AB10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC10" t="n">
         <v>8.5</v>
@@ -2296,7 +2296,7 @@
         <v>18.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AM10" t="n">
         <v>22</v>
@@ -2305,7 +2305,7 @@
         <v>5.3</v>
       </c>
       <c r="AO10" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AP10" t="n">
         <v>21</v>
@@ -2320,7 +2320,7 @@
         <v>250</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AU10" t="n">
         <v>6.8</v>
@@ -2332,19 +2332,19 @@
         <v>4.1</v>
       </c>
       <c r="AX10" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AY10" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AZ10" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="BA10" t="n">
         <v>60</v>
       </c>
       <c r="BB10" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BC10" t="n">
         <v>81</v>
@@ -2385,22 +2385,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H11" t="n">
         <v>3.75</v>
       </c>
       <c r="I11" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="J11" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="K11" t="n">
         <v>2.35</v>
       </c>
       <c r="L11" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
@@ -2409,13 +2409,13 @@
         <v>9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P11" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="R11" t="n">
         <v>2.32</v>
@@ -2433,7 +2433,7 @@
         <v>2.42</v>
       </c>
       <c r="W11" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="X11" t="n">
         <v>13</v>
@@ -2460,31 +2460,31 @@
         <v>11.75</v>
       </c>
       <c r="AF11" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG11" t="n">
         <v>200</v>
       </c>
       <c r="AH11" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AJ11" t="n">
         <v>10.75</v>
       </c>
       <c r="AK11" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AL11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM11" t="n">
         <v>24</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="AO11" t="n">
         <v>10.5</v>
@@ -2523,7 +2523,7 @@
         <v>60</v>
       </c>
       <c r="BA11" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BB11" t="n">
         <v>175</v>
@@ -2567,151 +2567,151 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.82</v>
+        <v>3.25</v>
       </c>
       <c r="H12" t="n">
         <v>3.75</v>
       </c>
       <c r="I12" t="n">
-        <v>2.18</v>
+        <v>1.98</v>
       </c>
       <c r="J12" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="K12" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="L12" t="n">
-        <v>2.65</v>
+        <v>2.47</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="O12" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P12" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="U12" t="n">
         <v>1.47</v>
       </c>
-      <c r="R12" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.42</v>
-      </c>
       <c r="V12" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="W12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>45</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL12" t="n">
         <v>14</v>
       </c>
-      <c r="X12" t="n">
+      <c r="AM12" t="n">
         <v>18.5</v>
       </c>
-      <c r="Y12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>35</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>150</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>18</v>
-      </c>
       <c r="AN12" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="AO12" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AP12" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AQ12" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AR12" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AS12" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="AU12" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AV12" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.65</v>
+        <v>4.3</v>
       </c>
       <c r="AX12" t="n">
-        <v>10.75</v>
+        <v>9.75</v>
       </c>
       <c r="AY12" t="n">
         <v>14.5</v>
       </c>
       <c r="AZ12" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="BA12" t="n">
         <v>50</v>
       </c>
       <c r="BB12" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BC12" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BD12" t="n">
         <v>81</v>
@@ -2749,7 +2749,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="H13" t="n">
         <v>3.55</v>
@@ -2758,13 +2758,13 @@
         <v>2.85</v>
       </c>
       <c r="J13" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="K13" t="n">
         <v>2.25</v>
       </c>
       <c r="L13" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="M13" t="n">
         <v>1.04</v>
@@ -2779,16 +2779,16 @@
         <v>4</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R13" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S13" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="T13" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="U13" t="n">
         <v>1.53</v>
@@ -2797,10 +2797,10 @@
         <v>2.32</v>
       </c>
       <c r="W13" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="X13" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y13" t="n">
         <v>9</v>
@@ -2809,10 +2809,10 @@
         <v>23</v>
       </c>
       <c r="AA13" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC13" t="n">
         <v>8.5</v>
@@ -2830,10 +2830,10 @@
         <v>250</v>
       </c>
       <c r="AH13" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AI13" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AJ13" t="n">
         <v>10.25</v>
@@ -2842,52 +2842,52 @@
         <v>35</v>
       </c>
       <c r="AL13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN13" t="n">
         <v>4.4</v>
       </c>
       <c r="AO13" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AP13" t="n">
         <v>17</v>
       </c>
       <c r="AQ13" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AR13" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AS13" t="n">
         <v>175</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="AU13" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AV13" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AW13" t="n">
         <v>5</v>
       </c>
       <c r="AX13" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AY13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ13" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BA13" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BB13" t="n">
         <v>200</v>
@@ -2931,7 +2931,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="H14" t="n">
         <v>3.3</v>
@@ -2940,13 +2940,13 @@
         <v>3.25</v>
       </c>
       <c r="J14" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="K14" t="n">
         <v>2.12</v>
       </c>
       <c r="L14" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="M14" t="n">
         <v>1.07</v>
@@ -2967,22 +2967,22 @@
         <v>1.75</v>
       </c>
       <c r="S14" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T14" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="U14" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="V14" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="W14" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X14" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Y14" t="n">
         <v>8.75</v>
@@ -2994,7 +2994,7 @@
         <v>17.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC14" t="n">
         <v>6.9</v>
@@ -3012,7 +3012,7 @@
         <v>600</v>
       </c>
       <c r="AH14" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AI14" t="n">
         <v>16.5</v>
@@ -3024,7 +3024,7 @@
         <v>40</v>
       </c>
       <c r="AL14" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM14" t="n">
         <v>37</v>
@@ -3033,25 +3033,25 @@
         <v>4.05</v>
       </c>
       <c r="AO14" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AP14" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AQ14" t="n">
         <v>40</v>
       </c>
       <c r="AR14" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AS14" t="n">
         <v>250</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AU14" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AV14" t="n">
         <v>60</v>
@@ -3060,10 +3060,10 @@
         <v>5.2</v>
       </c>
       <c r="AX14" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AY14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ14" t="n">
         <v>90</v>
@@ -3131,10 +3131,10 @@
         <v>2.6</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O15" t="n">
         <v>1.36</v>
@@ -3143,7 +3143,7 @@
         <v>3</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R15" t="n">
         <v>1.67</v>
@@ -3325,7 +3325,7 @@
         <v>5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="R16" t="n">
         <v>2.35</v>
@@ -4569,13 +4569,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H23" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I23" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J23" t="n">
         <v>2.5</v>
@@ -4587,22 +4587,22 @@
         <v>5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O23" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P23" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R23" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S23" t="n">
         <v>1.5</v>
@@ -4611,22 +4611,22 @@
         <v>2.5</v>
       </c>
       <c r="U23" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V23" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W23" t="n">
         <v>6</v>
       </c>
       <c r="X23" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y23" t="n">
         <v>9</v>
       </c>
       <c r="Z23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA23" t="n">
         <v>17</v>
@@ -4650,13 +4650,13 @@
         <v>351</v>
       </c>
       <c r="AH23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK23" t="n">
         <v>51</v>
@@ -4665,13 +4665,13 @@
         <v>41</v>
       </c>
       <c r="AM23" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN23" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP23" t="n">
         <v>23</v>
@@ -4695,22 +4695,22 @@
         <v>67</v>
       </c>
       <c r="AW23" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX23" t="n">
         <v>26</v>
       </c>
       <c r="AY23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ23" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA23" t="n">
         <v>126</v>
       </c>
       <c r="BB23" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC23" t="n">
         <v>81</v>
@@ -4751,22 +4751,22 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="H24" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I24" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J24" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="K24" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L24" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="M24" t="n">
         <v>1.06</v>
@@ -4784,7 +4784,7 @@
         <v>1.91</v>
       </c>
       <c r="R24" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="S24" t="n">
         <v>1.44</v>
@@ -4796,10 +4796,10 @@
         <v>1.75</v>
       </c>
       <c r="V24" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="W24" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X24" t="n">
         <v>10.25</v>
@@ -4808,10 +4808,10 @@
         <v>9</v>
       </c>
       <c r="Z24" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AA24" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AB24" t="n">
         <v>29</v>
@@ -4820,49 +4820,49 @@
         <v>7.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AE24" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG24" t="n">
         <v>600</v>
       </c>
       <c r="AH24" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AI24" t="n">
         <v>21</v>
       </c>
       <c r="AJ24" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AK24" t="n">
         <v>55</v>
       </c>
       <c r="AL24" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AM24" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="AO24" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AP24" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AQ24" t="n">
         <v>40</v>
       </c>
       <c r="AR24" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AS24" t="n">
         <v>250</v>
@@ -4871,28 +4871,28 @@
         <v>2.7</v>
       </c>
       <c r="AU24" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AV24" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW24" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AX24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY24" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AZ24" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BA24" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BB24" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BC24" t="n">
         <v>51</v>
@@ -5115,28 +5115,28 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="H26" t="n">
         <v>3.4</v>
       </c>
       <c r="I26" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="J26" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K26" t="n">
         <v>2.2</v>
       </c>
       <c r="L26" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M26" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O26" t="n">
         <v>1.29</v>
@@ -5220,13 +5220,13 @@
         <v>17</v>
       </c>
       <c r="AP26" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ26" t="n">
         <v>51</v>
       </c>
       <c r="AR26" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS26" t="n">
         <v>151</v>
@@ -5235,25 +5235,25 @@
         <v>2.75</v>
       </c>
       <c r="AU26" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV26" t="n">
         <v>51</v>
       </c>
       <c r="AW26" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ26" t="n">
         <v>41</v>
       </c>
       <c r="BA26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB26" t="n">
         <v>151</v>
@@ -5297,22 +5297,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H27" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I27" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="J27" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K27" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L27" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="M27" t="n">
         <v>1.02</v>
@@ -5339,10 +5339,10 @@
         <v>4</v>
       </c>
       <c r="U27" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V27" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W27" t="n">
         <v>21</v>
@@ -5411,7 +5411,7 @@
         <v>67</v>
       </c>
       <c r="AS27" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT27" t="n">
         <v>4</v>
@@ -5429,7 +5429,7 @@
         <v>8</v>
       </c>
       <c r="AY27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ27" t="n">
         <v>21</v>
@@ -5438,10 +5438,10 @@
         <v>34</v>
       </c>
       <c r="BB27" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC27" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD27" t="n">
         <v>151</v>
@@ -5509,10 +5509,10 @@
         <v>3.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R28" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S28" t="n">
         <v>1.4</v>
@@ -6571,13 +6571,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H34" t="n">
         <v>3.4</v>
       </c>
       <c r="I34" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J34" t="n">
         <v>2.88</v>
@@ -6613,10 +6613,10 @@
         <v>2.38</v>
       </c>
       <c r="U34" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V34" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W34" t="n">
         <v>6</v>
@@ -6628,10 +6628,10 @@
         <v>9.5</v>
       </c>
       <c r="Z34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA34" t="n">
         <v>19</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>21</v>
       </c>
       <c r="AB34" t="n">
         <v>41</v>
@@ -6700,7 +6700,7 @@
         <v>5.5</v>
       </c>
       <c r="AX34" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY34" t="n">
         <v>34</v>
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H35" t="n">
         <v>3.1</v>
       </c>
       <c r="I35" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J35" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K35" t="n">
         <v>2.05</v>
@@ -6953,10 +6953,10 @@
         <v>5</v>
       </c>
       <c r="M36" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O36" t="n">
         <v>1.3</v>
@@ -6965,10 +6965,10 @@
         <v>3.4</v>
       </c>
       <c r="Q36" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R36" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S36" t="n">
         <v>1.4</v>
@@ -6977,10 +6977,10 @@
         <v>2.75</v>
       </c>
       <c r="U36" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V36" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W36" t="n">
         <v>6.5</v>
@@ -7001,7 +7001,7 @@
         <v>29</v>
       </c>
       <c r="AC36" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD36" t="n">
         <v>7</v>
@@ -7013,7 +7013,7 @@
         <v>51</v>
       </c>
       <c r="AG36" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH36" t="n">
         <v>12</v>
@@ -7022,7 +7022,7 @@
         <v>23</v>
       </c>
       <c r="AJ36" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK36" t="n">
         <v>51</v>
@@ -7845,13 +7845,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H41" t="n">
         <v>3.8</v>
       </c>
       <c r="I41" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J41" t="n">
         <v>2.5</v>
@@ -7866,19 +7866,19 @@
         <v>1.03</v>
       </c>
       <c r="N41" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O41" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P41" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R41" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S41" t="n">
         <v>1.25</v>
@@ -7893,10 +7893,10 @@
         <v>2.25</v>
       </c>
       <c r="W41" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X41" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y41" t="n">
         <v>8.5</v>
@@ -7938,7 +7938,7 @@
         <v>41</v>
       </c>
       <c r="AL41" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM41" t="n">
         <v>29</v>
@@ -8224,7 +8224,7 @@
         <v>2.38</v>
       </c>
       <c r="L43" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="M43" t="n">
         <v>1.04</v>
@@ -8260,13 +8260,13 @@
         <v>17</v>
       </c>
       <c r="X43" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y43" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z43" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AA43" t="n">
         <v>41</v>
@@ -8287,13 +8287,13 @@
         <v>51</v>
       </c>
       <c r="AG43" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH43" t="n">
         <v>7.5</v>
       </c>
       <c r="AI43" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AJ43" t="n">
         <v>8.5</v>
@@ -8329,7 +8329,7 @@
         <v>3.25</v>
       </c>
       <c r="AU43" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV43" t="n">
         <v>51</v>
@@ -8344,7 +8344,7 @@
         <v>17</v>
       </c>
       <c r="AZ43" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA43" t="n">
         <v>41</v>
@@ -8421,10 +8421,10 @@
         <v>3.75</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R44" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S44" t="n">
         <v>1.36</v>
@@ -9304,19 +9304,19 @@
         <v>1.17</v>
       </c>
       <c r="H49" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I49" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="J49" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="K49" t="n">
         <v>2.95</v>
       </c>
       <c r="L49" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="M49" t="n">
         <v>1.01</v>
@@ -9328,13 +9328,13 @@
         <v>1.04</v>
       </c>
       <c r="P49" t="n">
-        <v>6.35</v>
+        <v>6.45</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="R49" t="n">
-        <v>3.08</v>
+        <v>3.14</v>
       </c>
       <c r="S49" t="n">
         <v>1.17</v>
@@ -9349,16 +9349,16 @@
         <v>1.99</v>
       </c>
       <c r="W49" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="X49" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="Y49" t="n">
         <v>8.5</v>
       </c>
       <c r="Z49" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AA49" t="n">
         <v>8.25</v>
@@ -9373,7 +9373,7 @@
         <v>12.5</v>
       </c>
       <c r="AE49" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AF49" t="n">
         <v>50</v>
@@ -9385,31 +9385,31 @@
         <v>40</v>
       </c>
       <c r="AI49" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AJ49" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK49" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AL49" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AM49" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN49" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="AO49" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="AP49" t="n">
         <v>11.75</v>
       </c>
       <c r="AQ49" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AR49" t="n">
         <v>24</v>
@@ -9418,7 +9418,7 @@
         <v>100</v>
       </c>
       <c r="AT49" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="AU49" t="n">
         <v>8.25</v>
@@ -9427,19 +9427,19 @@
         <v>50</v>
       </c>
       <c r="AW49" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AX49" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AY49" t="n">
         <v>40</v>
       </c>
       <c r="AZ49" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BA49" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BB49" t="n">
         <v>350</v>
@@ -10029,28 +10029,28 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="H53" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I53" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="J53" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="K53" t="n">
         <v>1.95</v>
       </c>
       <c r="L53" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="M53" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N53" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O53" t="n">
         <v>1.53</v>
@@ -10077,7 +10077,7 @@
         <v>1.44</v>
       </c>
       <c r="W53" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X53" t="n">
         <v>29</v>
@@ -10098,7 +10098,7 @@
         <v>6</v>
       </c>
       <c r="AD53" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE53" t="n">
         <v>26</v>
@@ -10113,13 +10113,13 @@
         <v>4.75</v>
       </c>
       <c r="AI53" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AJ53" t="n">
         <v>9.5</v>
       </c>
       <c r="AK53" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL53" t="n">
         <v>19</v>
@@ -10152,13 +10152,13 @@
         <v>11</v>
       </c>
       <c r="AV53" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW53" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AX53" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AY53" t="n">
         <v>29</v>
@@ -10393,13 +10393,13 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H55" t="n">
         <v>3.4</v>
       </c>
       <c r="I55" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J55" t="n">
         <v>3</v>
@@ -10408,7 +10408,7 @@
         <v>2.25</v>
       </c>
       <c r="L55" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M55" t="n">
         <v>1.04</v>
@@ -10441,13 +10441,13 @@
         <v>2.2</v>
       </c>
       <c r="W55" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X55" t="n">
         <v>13</v>
       </c>
       <c r="Y55" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z55" t="n">
         <v>23</v>
@@ -10489,7 +10489,7 @@
         <v>21</v>
       </c>
       <c r="AM55" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN55" t="n">
         <v>4.5</v>
@@ -10757,13 +10757,13 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H57" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I57" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J57" t="n">
         <v>3.5</v>
@@ -10772,7 +10772,7 @@
         <v>2.5</v>
       </c>
       <c r="L57" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M57" t="n">
         <v>1.02</v>
@@ -10781,10 +10781,10 @@
         <v>19</v>
       </c>
       <c r="O57" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P57" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q57" t="n">
         <v>1.48</v>
@@ -10814,7 +10814,7 @@
         <v>12</v>
       </c>
       <c r="Z57" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA57" t="n">
         <v>23</v>
@@ -10826,7 +10826,7 @@
         <v>19</v>
       </c>
       <c r="AD57" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE57" t="n">
         <v>11</v>
@@ -10847,7 +10847,7 @@
         <v>9</v>
       </c>
       <c r="AK57" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL57" t="n">
         <v>15</v>
@@ -11303,88 +11303,88 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H60" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J60" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K60" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L60" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N60" t="n">
+        <v>9</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P60" t="n">
         <v>3.25</v>
       </c>
-      <c r="I60" t="n">
-        <v>3</v>
-      </c>
-      <c r="J60" t="n">
-        <v>3</v>
-      </c>
-      <c r="K60" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L60" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M60" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N60" t="n">
-        <v>11</v>
-      </c>
-      <c r="O60" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P60" t="n">
-        <v>3.5</v>
-      </c>
       <c r="Q60" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="R60" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="S60" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T60" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U60" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V60" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W60" t="n">
+        <v>8</v>
+      </c>
+      <c r="X60" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC60" t="n">
         <v>8.5</v>
       </c>
-      <c r="X60" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y60" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z60" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA60" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB60" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC60" t="n">
-        <v>10</v>
-      </c>
       <c r="AD60" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE60" t="n">
         <v>13</v>
       </c>
       <c r="AF60" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG60" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH60" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI60" t="n">
         <v>15</v>
@@ -11393,7 +11393,7 @@
         <v>11</v>
       </c>
       <c r="AK60" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL60" t="n">
         <v>23</v>
@@ -11402,49 +11402,49 @@
         <v>34</v>
       </c>
       <c r="AN60" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO60" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP60" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ60" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR60" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS60" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT60" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU60" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV60" t="n">
         <v>51</v>
       </c>
       <c r="AW60" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX60" t="n">
         <v>17</v>
       </c>
       <c r="AY60" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ60" t="n">
         <v>51</v>
       </c>
       <c r="BA60" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB60" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC60" t="n">
         <v>81</v>
@@ -12037,10 +12037,10 @@
         <v>3.8</v>
       </c>
       <c r="I64" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="J64" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K64" t="n">
         <v>2.4</v>
@@ -12130,13 +12130,13 @@
         <v>21</v>
       </c>
       <c r="AN64" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AO64" t="n">
         <v>23</v>
       </c>
       <c r="AP64" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ64" t="n">
         <v>81</v>
@@ -12160,7 +12160,7 @@
         <v>3.75</v>
       </c>
       <c r="AX64" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AY64" t="n">
         <v>17</v>
@@ -12759,28 +12759,28 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H68" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I68" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J68" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K68" t="n">
         <v>2.5</v>
       </c>
       <c r="L68" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M68" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N68" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="O68" t="n">
         <v>1.17</v>
@@ -12789,10 +12789,10 @@
         <v>4.5</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R68" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S68" t="n">
         <v>1.29</v>
@@ -12807,31 +12807,31 @@
         <v>1.83</v>
       </c>
       <c r="W68" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X68" t="n">
         <v>7.5</v>
       </c>
       <c r="Y68" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z68" t="n">
         <v>9.5</v>
       </c>
       <c r="AA68" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB68" t="n">
         <v>23</v>
       </c>
       <c r="AC68" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD68" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE68" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF68" t="n">
         <v>51</v>
@@ -12843,7 +12843,7 @@
         <v>19</v>
       </c>
       <c r="AI68" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ68" t="n">
         <v>21</v>
@@ -12879,13 +12879,13 @@
         <v>3.5</v>
       </c>
       <c r="AU68" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW68" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AV68" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW68" t="n">
-        <v>8</v>
       </c>
       <c r="AX68" t="n">
         <v>34</v>
@@ -13040,7 +13040,7 @@
         <v>21</v>
       </c>
       <c r="AN69" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AO69" t="n">
         <v>23</v>
@@ -13123,10 +13123,10 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H70" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I70" t="n">
         <v>4.33</v>
@@ -13135,7 +13135,7 @@
         <v>2.5</v>
       </c>
       <c r="K70" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L70" t="n">
         <v>5</v>
@@ -13144,7 +13144,7 @@
         <v>1.07</v>
       </c>
       <c r="N70" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O70" t="n">
         <v>1.36</v>
@@ -13159,16 +13159,16 @@
         <v>1.67</v>
       </c>
       <c r="S70" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T70" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U70" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V70" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W70" t="n">
         <v>6</v>
@@ -13189,7 +13189,7 @@
         <v>34</v>
       </c>
       <c r="AC70" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD70" t="n">
         <v>7</v>
@@ -13201,10 +13201,10 @@
         <v>67</v>
       </c>
       <c r="AG70" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AH70" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI70" t="n">
         <v>21</v>
@@ -13219,13 +13219,13 @@
         <v>41</v>
       </c>
       <c r="AM70" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN70" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO70" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP70" t="n">
         <v>23</v>
@@ -13240,7 +13240,7 @@
         <v>201</v>
       </c>
       <c r="AT70" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU70" t="n">
         <v>9</v>
@@ -13255,7 +13255,7 @@
         <v>26</v>
       </c>
       <c r="AY70" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ70" t="n">
         <v>101</v>
@@ -13264,7 +13264,7 @@
         <v>126</v>
       </c>
       <c r="BB70" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC70" t="n">
         <v>81</v>
@@ -13305,22 +13305,22 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="H71" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I71" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="J71" t="n">
         <v>2.8</v>
       </c>
       <c r="K71" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L71" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="M71" t="n">
         <v>1.05</v>
@@ -13335,28 +13335,28 @@
         <v>3.75</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R71" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="S71" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="T71" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="U71" t="n">
         <v>1.57</v>
       </c>
       <c r="V71" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="W71" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="X71" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y71" t="n">
         <v>8.75</v>
@@ -13368,13 +13368,13 @@
         <v>16.5</v>
       </c>
       <c r="AB71" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC71" t="n">
         <v>8</v>
       </c>
       <c r="AD71" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AE71" t="n">
         <v>11.75</v>
@@ -13386,10 +13386,10 @@
         <v>300</v>
       </c>
       <c r="AH71" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AI71" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AJ71" t="n">
         <v>10.5</v>
@@ -13401,13 +13401,13 @@
         <v>23</v>
       </c>
       <c r="AM71" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN71" t="n">
         <v>4.35</v>
       </c>
       <c r="AO71" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AP71" t="n">
         <v>17.5</v>
@@ -13416,13 +13416,13 @@
         <v>45</v>
       </c>
       <c r="AR71" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AS71" t="n">
         <v>200</v>
       </c>
       <c r="AT71" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="AU71" t="n">
         <v>6.5</v>
@@ -13434,19 +13434,19 @@
         <v>5.1</v>
       </c>
       <c r="AX71" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AY71" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ71" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BA71" t="n">
         <v>90</v>
       </c>
       <c r="BB71" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC71" t="n">
         <v>51</v>
@@ -13502,7 +13502,7 @@
         <v>2.15</v>
       </c>
       <c r="L72" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="M72" t="n">
         <v>1.05</v>
@@ -13523,10 +13523,10 @@
         <v>2.07</v>
       </c>
       <c r="S72" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="T72" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="U72" t="n">
         <v>1.53</v>
@@ -13535,7 +13535,7 @@
         <v>2.32</v>
       </c>
       <c r="W72" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="X72" t="n">
         <v>17</v>
@@ -13583,7 +13583,7 @@
         <v>17.5</v>
       </c>
       <c r="AM72" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN72" t="n">
         <v>5</v>
@@ -13592,10 +13592,10 @@
         <v>15</v>
       </c>
       <c r="AP72" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AQ72" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AR72" t="n">
         <v>80</v>
@@ -13604,7 +13604,7 @@
         <v>200</v>
       </c>
       <c r="AT72" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="AU72" t="n">
         <v>6.3</v>
@@ -13619,7 +13619,7 @@
         <v>12.5</v>
       </c>
       <c r="AY72" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AZ72" t="n">
         <v>50</v>
@@ -13628,7 +13628,7 @@
         <v>70</v>
       </c>
       <c r="BB72" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BC72" t="n">
         <v>51</v>
@@ -13678,13 +13678,13 @@
         <v>2.4</v>
       </c>
       <c r="J73" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K73" t="n">
         <v>2.15</v>
       </c>
       <c r="L73" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="M73" t="n">
         <v>1.05</v>
@@ -13717,10 +13717,10 @@
         <v>2.18</v>
       </c>
       <c r="W73" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="X73" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y73" t="n">
         <v>10</v>
@@ -13729,10 +13729,10 @@
         <v>32</v>
       </c>
       <c r="AA73" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AB73" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC73" t="n">
         <v>7.8</v>
@@ -13750,67 +13750,67 @@
         <v>300</v>
       </c>
       <c r="AH73" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ73" t="n">
         <v>9</v>
       </c>
-      <c r="AI73" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AJ73" t="n">
-        <v>9.25</v>
-      </c>
       <c r="AK73" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL73" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AM73" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN73" t="n">
         <v>4.8</v>
       </c>
       <c r="AO73" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AP73" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ73" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AR73" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS73" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT73" t="n">
         <v>2.85</v>
       </c>
       <c r="AU73" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AV73" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AW73" t="n">
         <v>4.45</v>
       </c>
       <c r="AX73" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AY73" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AZ73" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BA73" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BB73" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC73" t="n">
         <v>51</v>
@@ -13854,10 +13854,10 @@
         <v>1.65</v>
       </c>
       <c r="H74" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I74" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="J74" t="n">
         <v>2.18</v>
@@ -13866,7 +13866,7 @@
         <v>2.3</v>
       </c>
       <c r="L74" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="M74" t="n">
         <v>1.04</v>
@@ -13875,10 +13875,10 @@
         <v>8.5</v>
       </c>
       <c r="O74" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P74" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="Q74" t="n">
         <v>1.65</v>
@@ -13899,7 +13899,7 @@
         <v>2.05</v>
       </c>
       <c r="W74" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="X74" t="n">
         <v>8.5</v>
@@ -13911,7 +13911,7 @@
         <v>13</v>
       </c>
       <c r="AA74" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AB74" t="n">
         <v>22</v>
@@ -13929,10 +13929,10 @@
         <v>55</v>
       </c>
       <c r="AG74" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AH74" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AI74" t="n">
         <v>28</v>
@@ -13953,7 +13953,7 @@
         <v>3.65</v>
       </c>
       <c r="AO74" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AP74" t="n">
         <v>15.5</v>
@@ -13971,28 +13971,28 @@
         <v>3.05</v>
       </c>
       <c r="AU74" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AV74" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW74" t="n">
         <v>6.4</v>
       </c>
       <c r="AX74" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY74" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ74" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BA74" t="n">
         <v>150</v>
       </c>
       <c r="BB74" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BC74" t="n">
         <v>51</v>
@@ -14215,22 +14215,22 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="H76" t="n">
         <v>3.1</v>
       </c>
       <c r="I76" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J76" t="n">
         <v>3</v>
-      </c>
-      <c r="J76" t="n">
-        <v>3.4</v>
       </c>
       <c r="K76" t="n">
         <v>1.91</v>
       </c>
       <c r="L76" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="M76" t="n">
         <v>1.1</v>
@@ -14257,25 +14257,25 @@
         <v>2.25</v>
       </c>
       <c r="U76" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V76" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W76" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X76" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y76" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z76" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA76" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB76" t="n">
         <v>41</v>
@@ -14284,52 +14284,52 @@
         <v>6.5</v>
       </c>
       <c r="AD76" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE76" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF76" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG76" t="n">
         <v>351</v>
       </c>
       <c r="AH76" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI76" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ76" t="n">
         <v>13</v>
       </c>
-      <c r="AJ76" t="n">
-        <v>12</v>
-      </c>
       <c r="AK76" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL76" t="n">
         <v>34</v>
       </c>
-      <c r="AL76" t="n">
-        <v>29</v>
-      </c>
       <c r="AM76" t="n">
         <v>41</v>
       </c>
       <c r="AN76" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO76" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP76" t="n">
         <v>29</v>
       </c>
       <c r="AQ76" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR76" t="n">
         <v>81</v>
       </c>
       <c r="AS76" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT76" t="n">
         <v>2.25</v>
@@ -14341,22 +14341,22 @@
         <v>67</v>
       </c>
       <c r="AW76" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AX76" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY76" t="n">
         <v>34</v>
       </c>
       <c r="AZ76" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA76" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB76" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC76" t="n">
         <v>276</v>
@@ -15140,25 +15140,25 @@
         <v>2.12</v>
       </c>
       <c r="L81" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="M81" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N81" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="O81" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P81" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R81" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S81" t="n">
         <v>1.42</v>
@@ -15167,7 +15167,7 @@
         <v>2.67</v>
       </c>
       <c r="U81" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="V81" t="n">
         <v>1.75</v>
@@ -15176,7 +15176,7 @@
         <v>6</v>
       </c>
       <c r="X81" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Y81" t="n">
         <v>8.5</v>
@@ -15191,7 +15191,7 @@
         <v>32</v>
       </c>
       <c r="AC81" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AD81" t="n">
         <v>6.3</v>
@@ -15200,13 +15200,13 @@
         <v>17</v>
       </c>
       <c r="AF81" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AG81" t="n">
         <v>900</v>
       </c>
       <c r="AH81" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI81" t="n">
         <v>21</v>
@@ -15233,10 +15233,10 @@
         <v>18.5</v>
       </c>
       <c r="AQ81" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AR81" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AS81" t="n">
         <v>250</v>
@@ -15251,16 +15251,16 @@
         <v>70</v>
       </c>
       <c r="AW81" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AX81" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY81" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ81" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BA81" t="n">
         <v>175</v>
@@ -15489,61 +15489,61 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="H83" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="I83" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="J83" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="K83" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="L83" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="M83" t="n">
         <v>1.07</v>
       </c>
       <c r="N83" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="O83" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P83" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q83" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R83" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S83" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="T83" t="n">
-        <v>2.67</v>
+        <v>2.77</v>
       </c>
       <c r="U83" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="V83" t="n">
         <v>1.53</v>
       </c>
       <c r="W83" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="X83" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Y83" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z83" t="n">
         <v>300</v>
@@ -15555,10 +15555,10 @@
         <v>120</v>
       </c>
       <c r="AC83" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AD83" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AE83" t="n">
         <v>26</v>
@@ -15573,22 +15573,22 @@
         <v>5.3</v>
       </c>
       <c r="AI83" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AJ83" t="n">
         <v>8.75</v>
       </c>
       <c r="AK83" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AL83" t="n">
         <v>13</v>
       </c>
       <c r="AM83" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AN83" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AO83" t="n">
         <v>60</v>
@@ -15606,31 +15606,31 @@
         <v>400</v>
       </c>
       <c r="AT83" t="n">
-        <v>2.67</v>
+        <v>2.77</v>
       </c>
       <c r="AU83" t="n">
         <v>9.25</v>
       </c>
       <c r="AV83" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AW83" t="n">
         <v>3</v>
       </c>
       <c r="AX83" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AY83" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AZ83" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA83" t="n">
         <v>55</v>
       </c>
       <c r="BB83" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BC83" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-09-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-20.xlsx
@@ -777,10 +777,10 @@
         <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="R2" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="S2" t="n">
         <v>1.36</v>
@@ -941,7 +941,7 @@
         <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L3" t="n">
         <v>3.25</v>
@@ -998,7 +998,7 @@
         <v>13</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
         <v>12</v>
@@ -1034,7 +1034,7 @@
         <v>13</v>
       </c>
       <c r="AP3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ3" t="n">
         <v>41</v>
@@ -1064,7 +1064,7 @@
         <v>21</v>
       </c>
       <c r="AZ3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA3" t="n">
         <v>51</v>
@@ -1073,7 +1073,7 @@
         <v>126</v>
       </c>
       <c r="BC3" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BD3" t="n">
         <v>151</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
         <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
         <v>2.75</v>
@@ -1126,13 +1126,13 @@
         <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
         <v>1.4</v>
@@ -1147,10 +1147,10 @@
         <v>1.67</v>
       </c>
       <c r="S4" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U4" t="n">
         <v>1.95</v>
@@ -1168,19 +1168,19 @@
         <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB4" t="n">
         <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
         <v>17</v>
@@ -1189,13 +1189,13 @@
         <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="n">
         <v>13</v>
@@ -1213,7 +1213,7 @@
         <v>4</v>
       </c>
       <c r="AO4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP4" t="n">
         <v>23</v>
@@ -1228,7 +1228,7 @@
         <v>201</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU4" t="n">
         <v>8.5</v>
@@ -1243,10 +1243,10 @@
         <v>21</v>
       </c>
       <c r="AY4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA4" t="n">
         <v>101</v>
@@ -1350,7 +1350,7 @@
         <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA5" t="n">
         <v>26</v>
@@ -1365,7 +1365,7 @@
         <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
         <v>67</v>
@@ -1374,7 +1374,7 @@
         <v>501</v>
       </c>
       <c r="AH5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI5" t="n">
         <v>12</v>
@@ -1398,7 +1398,7 @@
         <v>17</v>
       </c>
       <c r="AP5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ5" t="n">
         <v>51</v>
@@ -1419,13 +1419,13 @@
         <v>67</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX5" t="n">
         <v>17</v>
       </c>
       <c r="AY5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ5" t="n">
         <v>51</v>
@@ -1517,10 +1517,10 @@
         <v>3.75</v>
       </c>
       <c r="U6" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V6" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W6" t="n">
         <v>21</v>
@@ -1583,13 +1583,13 @@
         <v>34</v>
       </c>
       <c r="AQ6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AR6" t="n">
         <v>101</v>
       </c>
       <c r="AS6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT6" t="n">
         <v>3.75</v>
@@ -1860,7 +1860,7 @@
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
         <v>1.4</v>
@@ -1869,10 +1869,10 @@
         <v>2.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R8" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S8" t="n">
         <v>1.5</v>
@@ -2248,7 +2248,7 @@
         <v>1.6</v>
       </c>
       <c r="V10" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="W10" t="n">
         <v>12</v>
@@ -2257,7 +2257,7 @@
         <v>18.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="Z10" t="n">
         <v>40</v>
@@ -2287,16 +2287,16 @@
         <v>9.25</v>
       </c>
       <c r="AI10" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AJ10" t="n">
         <v>8.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AL10" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AM10" t="n">
         <v>22</v>
@@ -2332,19 +2332,19 @@
         <v>4.1</v>
       </c>
       <c r="AX10" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AY10" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AZ10" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BA10" t="n">
         <v>60</v>
       </c>
       <c r="BB10" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BC10" t="n">
         <v>81</v>
@@ -2385,13 +2385,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H11" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I11" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="J11" t="n">
         <v>2.6</v>
@@ -2400,7 +2400,7 @@
         <v>2.35</v>
       </c>
       <c r="L11" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
@@ -2421,7 +2421,7 @@
         <v>2.32</v>
       </c>
       <c r="S11" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="T11" t="n">
         <v>3.3</v>
@@ -2436,7 +2436,7 @@
         <v>11</v>
       </c>
       <c r="X11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y11" t="n">
         <v>9</v>
@@ -2454,7 +2454,7 @@
         <v>9</v>
       </c>
       <c r="AD11" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AE11" t="n">
         <v>11.75</v>
@@ -2469,22 +2469,22 @@
         <v>13.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AJ11" t="n">
         <v>10.75</v>
       </c>
       <c r="AK11" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AL11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM11" t="n">
         <v>24</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="AO11" t="n">
         <v>10.5</v>
@@ -2514,7 +2514,7 @@
         <v>5.2</v>
       </c>
       <c r="AX11" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AY11" t="n">
         <v>18.5</v>
@@ -2523,7 +2523,7 @@
         <v>60</v>
       </c>
       <c r="BA11" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BB11" t="n">
         <v>175</v>
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H12" t="n">
         <v>3.75</v>
       </c>
       <c r="I12" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="J12" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K12" t="n">
         <v>2.35</v>
       </c>
       <c r="L12" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
@@ -2591,46 +2591,46 @@
         <v>9.25</v>
       </c>
       <c r="O12" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P12" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="R12" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="S12" t="n">
         <v>1.28</v>
       </c>
       <c r="T12" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="U12" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V12" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="W12" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="X12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="Z12" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AA12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC12" t="n">
         <v>9.25</v>
@@ -2639,52 +2639,52 @@
         <v>7.8</v>
       </c>
       <c r="AE12" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF12" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG12" t="n">
         <v>200</v>
       </c>
       <c r="AH12" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AI12" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AJ12" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AM12" t="n">
         <v>18.5</v>
       </c>
       <c r="AN12" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AO12" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AP12" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AQ12" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AR12" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS12" t="n">
         <v>175</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="AU12" t="n">
         <v>6.4</v>
@@ -2693,13 +2693,13 @@
         <v>40</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AX12" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AY12" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AZ12" t="n">
         <v>32</v>
@@ -2752,10 +2752,10 @@
         <v>2.25</v>
       </c>
       <c r="H13" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="J13" t="n">
         <v>2.8</v>
@@ -2794,7 +2794,7 @@
         <v>1.53</v>
       </c>
       <c r="V13" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="W13" t="n">
         <v>10</v>
@@ -2818,10 +2818,10 @@
         <v>8.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AE13" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AF13" t="n">
         <v>40</v>
@@ -2875,7 +2875,7 @@
         <v>45</v>
       </c>
       <c r="AW13" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AX13" t="n">
         <v>14.5</v>
@@ -2931,22 +2931,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="H14" t="n">
         <v>3.3</v>
       </c>
       <c r="I14" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="J14" t="n">
-        <v>2.67</v>
+        <v>2.77</v>
       </c>
       <c r="K14" t="n">
         <v>2.12</v>
       </c>
       <c r="L14" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="M14" t="n">
         <v>1.07</v>
@@ -2955,10 +2955,10 @@
         <v>6.9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P14" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q14" t="n">
         <v>2</v>
@@ -2979,22 +2979,22 @@
         <v>1.93</v>
       </c>
       <c r="W14" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X14" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z14" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AA14" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC14" t="n">
         <v>6.9</v>
@@ -3012,37 +3012,37 @@
         <v>600</v>
       </c>
       <c r="AH14" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AI14" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AK14" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AL14" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AM14" t="n">
         <v>37</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="AO14" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AP14" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AQ14" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AR14" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AS14" t="n">
         <v>250</v>
@@ -3057,19 +3057,19 @@
         <v>60</v>
       </c>
       <c r="AW14" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="AX14" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AY14" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AZ14" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BA14" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BB14" t="n">
         <v>300</v>
@@ -3257,7 +3257,7 @@
         <v>201</v>
       </c>
       <c r="BC15" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD15" t="n">
         <v>151</v>
@@ -3477,28 +3477,28 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H17" t="n">
         <v>4.1</v>
       </c>
       <c r="I17" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J17" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K17" t="n">
         <v>2.4</v>
       </c>
       <c r="L17" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M17" t="n">
         <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O17" t="n">
         <v>1.18</v>
@@ -3513,10 +3513,10 @@
         <v>2.3</v>
       </c>
       <c r="S17" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T17" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U17" t="n">
         <v>1.62</v>
@@ -3525,10 +3525,10 @@
         <v>2.2</v>
       </c>
       <c r="W17" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X17" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y17" t="n">
         <v>8.5</v>
@@ -3543,7 +3543,7 @@
         <v>21</v>
       </c>
       <c r="AC17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD17" t="n">
         <v>8</v>
@@ -3558,16 +3558,16 @@
         <v>151</v>
       </c>
       <c r="AH17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ17" t="n">
         <v>15</v>
       </c>
       <c r="AK17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL17" t="n">
         <v>34</v>
@@ -3576,7 +3576,7 @@
         <v>34</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO17" t="n">
         <v>8.5</v>
@@ -3585,7 +3585,7 @@
         <v>17</v>
       </c>
       <c r="AQ17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR17" t="n">
         <v>41</v>
@@ -3594,7 +3594,7 @@
         <v>101</v>
       </c>
       <c r="AT17" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU17" t="n">
         <v>7.5</v>
@@ -3612,7 +3612,7 @@
         <v>26</v>
       </c>
       <c r="AZ17" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA17" t="n">
         <v>81</v>
@@ -4387,28 +4387,28 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H22" t="n">
         <v>3.3</v>
       </c>
       <c r="I22" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J22" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K22" t="n">
         <v>1.95</v>
       </c>
       <c r="L22" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N22" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O22" t="n">
         <v>1.5</v>
@@ -4423,22 +4423,22 @@
         <v>1.5</v>
       </c>
       <c r="S22" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T22" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U22" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V22" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W22" t="n">
         <v>5.5</v>
       </c>
       <c r="X22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y22" t="n">
         <v>9.5</v>
@@ -4453,7 +4453,7 @@
         <v>41</v>
       </c>
       <c r="AC22" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD22" t="n">
         <v>6.5</v>
@@ -4471,10 +4471,10 @@
         <v>9</v>
       </c>
       <c r="AI22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK22" t="n">
         <v>51</v>
@@ -4486,7 +4486,7 @@
         <v>51</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO22" t="n">
         <v>11</v>
@@ -4504,7 +4504,7 @@
         <v>251</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU22" t="n">
         <v>9.5</v>
@@ -4516,7 +4516,7 @@
         <v>6</v>
       </c>
       <c r="AX22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY22" t="n">
         <v>41</v>
@@ -4757,22 +4757,22 @@
         <v>3.45</v>
       </c>
       <c r="I24" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J24" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="K24" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L24" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="M24" t="n">
         <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="O24" t="n">
         <v>1.3</v>
@@ -4784,22 +4784,22 @@
         <v>1.91</v>
       </c>
       <c r="R24" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="S24" t="n">
         <v>1.44</v>
       </c>
       <c r="T24" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="U24" t="n">
         <v>1.75</v>
       </c>
       <c r="V24" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="W24" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X24" t="n">
         <v>10.25</v>
@@ -4811,22 +4811,22 @@
         <v>19</v>
       </c>
       <c r="AA24" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AE24" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF24" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG24" t="n">
         <v>600</v>
@@ -4841,10 +4841,10 @@
         <v>13</v>
       </c>
       <c r="AK24" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL24" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AM24" t="n">
         <v>45</v>
@@ -4856,19 +4856,19 @@
         <v>10.25</v>
       </c>
       <c r="AP24" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AQ24" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AR24" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AS24" t="n">
         <v>250</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="AU24" t="n">
         <v>7.3</v>
@@ -4877,13 +4877,13 @@
         <v>70</v>
       </c>
       <c r="AW24" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AX24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ24" t="n">
         <v>110</v>
@@ -4933,22 +4933,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="H25" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I25" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K25" t="n">
         <v>2.4</v>
       </c>
-      <c r="J25" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>2.38</v>
-      </c>
       <c r="L25" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M25" t="n">
         <v>1.03</v>
@@ -4963,13 +4963,13 @@
         <v>5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R25" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S25" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T25" t="n">
         <v>3.5</v>
@@ -4987,16 +4987,16 @@
         <v>17</v>
       </c>
       <c r="Y25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z25" t="n">
         <v>29</v>
       </c>
       <c r="AA25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC25" t="n">
         <v>17</v>
@@ -5005,7 +5005,7 @@
         <v>7.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF25" t="n">
         <v>34</v>
@@ -5017,16 +5017,16 @@
         <v>12</v>
       </c>
       <c r="AI25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ25" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK25" t="n">
         <v>23</v>
       </c>
       <c r="AL25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM25" t="n">
         <v>21</v>
@@ -5035,7 +5035,7 @@
         <v>5</v>
       </c>
       <c r="AO25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP25" t="n">
         <v>19</v>
@@ -5062,10 +5062,10 @@
         <v>4.75</v>
       </c>
       <c r="AX25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ25" t="n">
         <v>41</v>
@@ -5139,16 +5139,16 @@
         <v>11</v>
       </c>
       <c r="O26" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P26" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R26" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S26" t="n">
         <v>1.4</v>
@@ -5297,22 +5297,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="H27" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="I27" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="J27" t="n">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="K27" t="n">
         <v>2.63</v>
       </c>
       <c r="L27" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="M27" t="n">
         <v>1.02</v>
@@ -5339,10 +5339,10 @@
         <v>4</v>
       </c>
       <c r="U27" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V27" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W27" t="n">
         <v>21</v>
@@ -5396,22 +5396,22 @@
         <v>19</v>
       </c>
       <c r="AN27" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AP27" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AQ27" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR27" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS27" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT27" t="n">
         <v>4</v>
@@ -5420,19 +5420,19 @@
         <v>7</v>
       </c>
       <c r="AV27" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AW27" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AX27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY27" t="n">
         <v>13</v>
       </c>
       <c r="AZ27" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="BA27" t="n">
         <v>34</v>
@@ -5441,7 +5441,7 @@
         <v>67</v>
       </c>
       <c r="BC27" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD27" t="n">
         <v>151</v>
@@ -5679,10 +5679,10 @@
         <v>4</v>
       </c>
       <c r="M29" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O29" t="n">
         <v>1.29</v>
@@ -6025,22 +6025,22 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="H31" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I31" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="J31" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="K31" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L31" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="M31" t="n">
         <v>1.03</v>
@@ -6055,10 +6055,10 @@
         <v>4.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R31" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S31" t="n">
         <v>1.3</v>
@@ -6073,19 +6073,19 @@
         <v>2.2</v>
       </c>
       <c r="W31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X31" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y31" t="n">
         <v>15</v>
       </c>
       <c r="Z31" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA31" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB31" t="n">
         <v>34</v>
@@ -6109,31 +6109,31 @@
         <v>9</v>
       </c>
       <c r="AI31" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ31" t="n">
         <v>8.5</v>
       </c>
       <c r="AK31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL31" t="n">
         <v>13</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>12</v>
       </c>
       <c r="AM31" t="n">
         <v>21</v>
       </c>
       <c r="AN31" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP31" t="n">
         <v>26</v>
       </c>
       <c r="AQ31" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR31" t="n">
         <v>81</v>
@@ -6151,16 +6151,16 @@
         <v>41</v>
       </c>
       <c r="AW31" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AX31" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AY31" t="n">
         <v>17</v>
       </c>
       <c r="AZ31" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA31" t="n">
         <v>41</v>
@@ -6207,16 +6207,16 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="H32" t="n">
         <v>2.9</v>
       </c>
       <c r="I32" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J32" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K32" t="n">
         <v>1.95</v>
@@ -6225,10 +6225,10 @@
         <v>3.75</v>
       </c>
       <c r="M32" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N32" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O32" t="n">
         <v>1.44</v>
@@ -6237,10 +6237,10 @@
         <v>2.63</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R32" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S32" t="n">
         <v>1.53</v>
@@ -6249,19 +6249,19 @@
         <v>2.38</v>
       </c>
       <c r="U32" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V32" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W32" t="n">
         <v>6.5</v>
       </c>
       <c r="X32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z32" t="n">
         <v>23</v>
@@ -6273,7 +6273,7 @@
         <v>41</v>
       </c>
       <c r="AC32" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD32" t="n">
         <v>6</v>
@@ -6297,7 +6297,7 @@
         <v>12</v>
       </c>
       <c r="AK32" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL32" t="n">
         <v>29</v>
@@ -6333,16 +6333,16 @@
         <v>67</v>
       </c>
       <c r="AW32" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY32" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ32" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA32" t="n">
         <v>101</v>
@@ -6395,7 +6395,7 @@
         <v>3</v>
       </c>
       <c r="I33" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J33" t="n">
         <v>3.75</v>
@@ -6404,7 +6404,7 @@
         <v>2</v>
       </c>
       <c r="L33" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M33" t="n">
         <v>1.08</v>
@@ -6488,7 +6488,7 @@
         <v>34</v>
       </c>
       <c r="AN33" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO33" t="n">
         <v>17</v>
@@ -6518,7 +6518,7 @@
         <v>4.33</v>
       </c>
       <c r="AX33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY33" t="n">
         <v>26</v>
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H35" t="n">
         <v>3.1</v>
       </c>
       <c r="I35" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="J35" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K35" t="n">
         <v>2.05</v>
       </c>
       <c r="L35" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M35" t="n">
         <v>1.07</v>
       </c>
       <c r="N35" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O35" t="n">
         <v>1.36</v>
@@ -6801,25 +6801,25 @@
         <v>1.83</v>
       </c>
       <c r="W35" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X35" t="n">
         <v>15</v>
       </c>
       <c r="Y35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z35" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA35" t="n">
         <v>29</v>
       </c>
-      <c r="AA35" t="n">
-        <v>26</v>
-      </c>
       <c r="AB35" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC35" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD35" t="n">
         <v>6</v>
@@ -6834,46 +6834,46 @@
         <v>301</v>
       </c>
       <c r="AH35" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI35" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ35" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK35" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL35" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM35" t="n">
         <v>34</v>
       </c>
       <c r="AN35" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO35" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP35" t="n">
         <v>29</v>
       </c>
       <c r="AQ35" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR35" t="n">
         <v>81</v>
       </c>
       <c r="AS35" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT35" t="n">
         <v>2.63</v>
       </c>
       <c r="AU35" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV35" t="n">
         <v>51</v>
@@ -6885,7 +6885,7 @@
         <v>13</v>
       </c>
       <c r="AY35" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ35" t="n">
         <v>41</v>
@@ -6935,40 +6935,40 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="H36" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I36" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L36" t="n">
         <v>4.75</v>
       </c>
-      <c r="J36" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K36" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L36" t="n">
-        <v>5</v>
-      </c>
       <c r="M36" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N36" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O36" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P36" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R36" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="S36" t="n">
         <v>1.4</v>
@@ -6977,22 +6977,22 @@
         <v>2.75</v>
       </c>
       <c r="U36" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V36" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W36" t="n">
         <v>6.5</v>
       </c>
       <c r="X36" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y36" t="n">
         <v>8.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA36" t="n">
         <v>15</v>
@@ -7004,7 +7004,7 @@
         <v>9.5</v>
       </c>
       <c r="AD36" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE36" t="n">
         <v>17</v>
@@ -7013,37 +7013,37 @@
         <v>51</v>
       </c>
       <c r="AG36" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH36" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI36" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ36" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK36" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL36" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM36" t="n">
         <v>41</v>
       </c>
       <c r="AN36" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO36" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP36" t="n">
         <v>21</v>
       </c>
       <c r="AQ36" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR36" t="n">
         <v>51</v>
@@ -7061,19 +7061,19 @@
         <v>51</v>
       </c>
       <c r="AW36" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX36" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY36" t="n">
         <v>34</v>
       </c>
       <c r="AZ36" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA36" t="n">
         <v>101</v>
-      </c>
-      <c r="BA36" t="n">
-        <v>126</v>
       </c>
       <c r="BB36" t="n">
         <v>251</v>
@@ -7481,22 +7481,22 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H39" t="n">
         <v>3.3</v>
       </c>
       <c r="I39" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="J39" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K39" t="n">
         <v>2.2</v>
       </c>
       <c r="L39" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M39" t="n">
         <v>1.05</v>
@@ -7505,16 +7505,16 @@
         <v>11</v>
       </c>
       <c r="O39" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P39" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="R39" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="S39" t="n">
         <v>1.4</v>
@@ -7538,7 +7538,7 @@
         <v>10</v>
       </c>
       <c r="Z39" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA39" t="n">
         <v>21</v>
@@ -7565,16 +7565,16 @@
         <v>9</v>
       </c>
       <c r="AI39" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ39" t="n">
         <v>10</v>
       </c>
       <c r="AK39" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL39" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM39" t="n">
         <v>29</v>
@@ -7607,10 +7607,10 @@
         <v>51</v>
       </c>
       <c r="AW39" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY39" t="n">
         <v>23</v>
@@ -7845,19 +7845,19 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="H41" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I41" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J41" t="n">
         <v>2.5</v>
       </c>
       <c r="K41" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L41" t="n">
         <v>3.75</v>
@@ -7896,13 +7896,13 @@
         <v>10</v>
       </c>
       <c r="X41" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y41" t="n">
         <v>8.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA41" t="n">
         <v>13</v>
@@ -7911,13 +7911,13 @@
         <v>21</v>
       </c>
       <c r="AC41" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD41" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF41" t="n">
         <v>41</v>
@@ -7929,7 +7929,7 @@
         <v>15</v>
       </c>
       <c r="AI41" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ41" t="n">
         <v>13</v>
@@ -7938,7 +7938,7 @@
         <v>41</v>
       </c>
       <c r="AL41" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM41" t="n">
         <v>29</v>
@@ -8027,22 +8027,22 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H42" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I42" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="J42" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="K42" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L42" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="M42" t="n">
         <v>1.04</v>
@@ -8057,10 +8057,10 @@
         <v>4</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R42" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S42" t="n">
         <v>1.33</v>
@@ -8075,31 +8075,31 @@
         <v>2.2</v>
       </c>
       <c r="W42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X42" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Y42" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Z42" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA42" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB42" t="n">
         <v>29</v>
       </c>
       <c r="AC42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD42" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF42" t="n">
         <v>41</v>
@@ -8108,28 +8108,28 @@
         <v>151</v>
       </c>
       <c r="AH42" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI42" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AJ42" t="n">
         <v>9</v>
       </c>
       <c r="AK42" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AL42" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM42" t="n">
         <v>23</v>
       </c>
       <c r="AN42" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO42" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP42" t="n">
         <v>23</v>
@@ -8150,19 +8150,19 @@
         <v>7.5</v>
       </c>
       <c r="AV42" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW42" t="n">
         <v>4.33</v>
       </c>
       <c r="AX42" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AY42" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ42" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA42" t="n">
         <v>51</v>
@@ -8421,10 +8421,10 @@
         <v>3.75</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R44" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S44" t="n">
         <v>1.36</v>
@@ -8961,16 +8961,16 @@
         <v>15</v>
       </c>
       <c r="O47" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P47" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R47" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S47" t="n">
         <v>1.3</v>
@@ -9301,10 +9301,10 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="H49" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="I49" t="n">
         <v>11.75</v>
@@ -9313,22 +9313,22 @@
         <v>1.47</v>
       </c>
       <c r="K49" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="L49" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="M49" t="n">
         <v>1.01</v>
       </c>
       <c r="N49" t="n">
-        <v>20</v>
+        <v>14.9</v>
       </c>
       <c r="O49" t="n">
         <v>1.04</v>
       </c>
       <c r="P49" t="n">
-        <v>6.45</v>
+        <v>6.5</v>
       </c>
       <c r="Q49" t="n">
         <v>1.25</v>
@@ -9340,25 +9340,25 @@
         <v>1.17</v>
       </c>
       <c r="T49" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="U49" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V49" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="W49" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="X49" t="n">
         <v>7.3</v>
       </c>
       <c r="Y49" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z49" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AA49" t="n">
         <v>8.25</v>
@@ -9367,13 +9367,13 @@
         <v>17.5</v>
       </c>
       <c r="AC49" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AD49" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE49" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AF49" t="n">
         <v>50</v>
@@ -9382,7 +9382,7 @@
         <v>250</v>
       </c>
       <c r="AH49" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI49" t="n">
         <v>100</v>
@@ -9397,28 +9397,28 @@
         <v>110</v>
       </c>
       <c r="AM49" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN49" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="AO49" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="AP49" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AQ49" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AR49" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS49" t="n">
         <v>100</v>
       </c>
       <c r="AT49" t="n">
-        <v>4.55</v>
+        <v>4.8</v>
       </c>
       <c r="AU49" t="n">
         <v>8.25</v>
@@ -9427,7 +9427,7 @@
         <v>50</v>
       </c>
       <c r="AW49" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AX49" t="n">
         <v>65</v>
@@ -9436,10 +9436,10 @@
         <v>40</v>
       </c>
       <c r="AZ49" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="BA49" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BB49" t="n">
         <v>350</v>
@@ -9847,16 +9847,16 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="H52" t="n">
         <v>4</v>
       </c>
       <c r="I52" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="J52" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K52" t="n">
         <v>2.3</v>
@@ -9877,10 +9877,10 @@
         <v>4</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R52" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S52" t="n">
         <v>1.33</v>
@@ -9901,13 +9901,13 @@
         <v>23</v>
       </c>
       <c r="Y52" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z52" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA52" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB52" t="n">
         <v>34</v>
@@ -9928,7 +9928,7 @@
         <v>201</v>
       </c>
       <c r="AH52" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI52" t="n">
         <v>9</v>
@@ -9937,7 +9937,7 @@
         <v>8.5</v>
       </c>
       <c r="AK52" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL52" t="n">
         <v>13</v>
@@ -9946,16 +9946,16 @@
         <v>23</v>
       </c>
       <c r="AN52" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO52" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP52" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ52" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR52" t="n">
         <v>81</v>
@@ -9973,7 +9973,7 @@
         <v>51</v>
       </c>
       <c r="AW52" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AX52" t="n">
         <v>9</v>
@@ -10029,40 +10029,40 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="H53" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I53" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="J53" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="K53" t="n">
         <v>1.95</v>
       </c>
       <c r="L53" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="M53" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N53" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O53" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P53" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R53" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S53" t="n">
         <v>1.57</v>
@@ -10086,7 +10086,7 @@
         <v>21</v>
       </c>
       <c r="Z53" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AA53" t="n">
         <v>51</v>
@@ -10104,7 +10104,7 @@
         <v>26</v>
       </c>
       <c r="AF53" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AG53" t="n">
         <v>101</v>
@@ -10122,7 +10122,7 @@
         <v>11</v>
       </c>
       <c r="AL53" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM53" t="n">
         <v>41</v>
@@ -10137,7 +10137,7 @@
         <v>51</v>
       </c>
       <c r="AQ53" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AR53" t="n">
         <v>251</v>
@@ -10158,13 +10158,13 @@
         <v>3.25</v>
       </c>
       <c r="AX53" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AY53" t="n">
         <v>29</v>
       </c>
       <c r="AZ53" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA53" t="n">
         <v>67</v>
@@ -10211,28 +10211,28 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="H54" t="n">
         <v>2.55</v>
       </c>
       <c r="I54" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="J54" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K54" t="n">
         <v>1.83</v>
       </c>
       <c r="L54" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M54" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N54" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O54" t="n">
         <v>1.57</v>
@@ -10262,16 +10262,16 @@
         <v>5.5</v>
       </c>
       <c r="X54" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y54" t="n">
         <v>11</v>
       </c>
       <c r="Z54" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA54" t="n">
         <v>23</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>26</v>
       </c>
       <c r="AB54" t="n">
         <v>41</v>
@@ -10283,7 +10283,7 @@
         <v>5.5</v>
       </c>
       <c r="AE54" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF54" t="n">
         <v>81</v>
@@ -10292,7 +10292,7 @@
         <v>101</v>
       </c>
       <c r="AH54" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI54" t="n">
         <v>17</v>
@@ -10313,16 +10313,16 @@
         <v>4</v>
       </c>
       <c r="AO54" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP54" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ54" t="n">
         <v>51</v>
       </c>
       <c r="AR54" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS54" t="n">
         <v>351</v>
@@ -10331,16 +10331,16 @@
         <v>2.2</v>
       </c>
       <c r="AU54" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV54" t="n">
         <v>81</v>
       </c>
       <c r="AW54" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX54" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY54" t="n">
         <v>41</v>
@@ -10349,7 +10349,7 @@
         <v>81</v>
       </c>
       <c r="BA54" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB54" t="n">
         <v>351</v>
@@ -10393,13 +10393,13 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H55" t="n">
         <v>3.4</v>
       </c>
       <c r="I55" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J55" t="n">
         <v>3</v>
@@ -10423,16 +10423,16 @@
         <v>4</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R55" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S55" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T55" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U55" t="n">
         <v>1.62</v>
@@ -10453,10 +10453,10 @@
         <v>23</v>
       </c>
       <c r="AA55" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB55" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC55" t="n">
         <v>12</v>
@@ -10510,7 +10510,7 @@
         <v>126</v>
       </c>
       <c r="AT55" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU55" t="n">
         <v>7.5</v>
@@ -10534,7 +10534,7 @@
         <v>67</v>
       </c>
       <c r="BB55" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC55" t="n">
         <v>351</v>
@@ -10578,7 +10578,7 @@
         <v>2.25</v>
       </c>
       <c r="H56" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I56" t="n">
         <v>3</v>
@@ -10590,7 +10590,7 @@
         <v>2.38</v>
       </c>
       <c r="L56" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M56" t="n">
         <v>1.03</v>
@@ -10674,7 +10674,7 @@
         <v>26</v>
       </c>
       <c r="AN56" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO56" t="n">
         <v>12</v>
@@ -10757,22 +10757,22 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H57" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="J57" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K57" t="n">
         <v>2.5</v>
       </c>
       <c r="L57" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M57" t="n">
         <v>1.02</v>
@@ -10808,10 +10808,10 @@
         <v>17</v>
       </c>
       <c r="X57" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y57" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z57" t="n">
         <v>41</v>
@@ -10820,10 +10820,10 @@
         <v>23</v>
       </c>
       <c r="AB57" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC57" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD57" t="n">
         <v>8</v>
@@ -10841,7 +10841,7 @@
         <v>12</v>
       </c>
       <c r="AI57" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ57" t="n">
         <v>9</v>
@@ -10850,19 +10850,19 @@
         <v>19</v>
       </c>
       <c r="AL57" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM57" t="n">
         <v>19</v>
       </c>
       <c r="AN57" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO57" t="n">
         <v>17</v>
       </c>
       <c r="AP57" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ57" t="n">
         <v>51</v>
@@ -10886,7 +10886,7 @@
         <v>4.5</v>
       </c>
       <c r="AX57" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AY57" t="n">
         <v>15</v>
@@ -11491,10 +11491,10 @@
         <v>3.3</v>
       </c>
       <c r="I61" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J61" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K61" t="n">
         <v>2.2</v>
@@ -11581,7 +11581,7 @@
         <v>21</v>
       </c>
       <c r="AM61" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN61" t="n">
         <v>4.75</v>
@@ -11593,7 +11593,7 @@
         <v>23</v>
       </c>
       <c r="AQ61" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR61" t="n">
         <v>67</v>
@@ -11617,7 +11617,7 @@
         <v>15</v>
       </c>
       <c r="AY61" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ61" t="n">
         <v>41</v>
@@ -12031,16 +12031,16 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="H64" t="n">
         <v>3.8</v>
       </c>
       <c r="I64" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="J64" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K64" t="n">
         <v>2.4</v>
@@ -12055,28 +12055,28 @@
         <v>15</v>
       </c>
       <c r="O64" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P64" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q64" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R64" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T64" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U64" t="n">
         <v>1.62</v>
       </c>
-      <c r="R64" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S64" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T64" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U64" t="n">
-        <v>1.67</v>
-      </c>
       <c r="V64" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W64" t="n">
         <v>17</v>
@@ -12085,16 +12085,16 @@
         <v>29</v>
       </c>
       <c r="Y64" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z64" t="n">
         <v>51</v>
       </c>
       <c r="AA64" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB64" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC64" t="n">
         <v>15</v>
@@ -12109,13 +12109,13 @@
         <v>41</v>
       </c>
       <c r="AG64" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH64" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI64" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ64" t="n">
         <v>8.5</v>
@@ -12130,16 +12130,16 @@
         <v>21</v>
       </c>
       <c r="AN64" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AO64" t="n">
         <v>23</v>
       </c>
       <c r="AP64" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ64" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR64" t="n">
         <v>81</v>
@@ -12148,7 +12148,7 @@
         <v>151</v>
       </c>
       <c r="AT64" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU64" t="n">
         <v>7.5</v>
@@ -12157,16 +12157,16 @@
         <v>41</v>
       </c>
       <c r="AW64" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AX64" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AY64" t="n">
         <v>17</v>
       </c>
       <c r="AZ64" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA64" t="n">
         <v>41</v>
@@ -12175,7 +12175,7 @@
         <v>101</v>
       </c>
       <c r="BC64" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BD64" t="n">
         <v>151</v>
@@ -12395,22 +12395,22 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H66" t="n">
         <v>2.75</v>
       </c>
       <c r="I66" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="J66" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="K66" t="n">
         <v>1.91</v>
       </c>
       <c r="L66" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="M66" t="n">
         <v>1.11</v>
@@ -12437,22 +12437,22 @@
         <v>2.25</v>
       </c>
       <c r="U66" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V66" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W66" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X66" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Y66" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z66" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA66" t="n">
         <v>23</v>
@@ -12461,13 +12461,13 @@
         <v>41</v>
       </c>
       <c r="AC66" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD66" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE66" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF66" t="n">
         <v>67</v>
@@ -12476,28 +12476,28 @@
         <v>1250</v>
       </c>
       <c r="AH66" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI66" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ66" t="n">
         <v>13</v>
       </c>
-      <c r="AJ66" t="n">
-        <v>12</v>
-      </c>
       <c r="AK66" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL66" t="n">
         <v>34</v>
       </c>
-      <c r="AL66" t="n">
-        <v>29</v>
-      </c>
       <c r="AM66" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN66" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO66" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP66" t="n">
         <v>29</v>
@@ -12515,28 +12515,28 @@
         <v>2.25</v>
       </c>
       <c r="AU66" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV66" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW66" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX66" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY66" t="n">
         <v>34</v>
       </c>
       <c r="AZ66" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA66" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB66" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC66" t="n">
         <v>51</v>
@@ -13123,13 +13123,13 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H70" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I70" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J70" t="n">
         <v>2.5</v>
@@ -13153,10 +13153,10 @@
         <v>3</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R70" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S70" t="n">
         <v>1.44</v>
@@ -13180,13 +13180,13 @@
         <v>9</v>
       </c>
       <c r="Z70" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA70" t="n">
         <v>15</v>
       </c>
-      <c r="AA70" t="n">
-        <v>17</v>
-      </c>
       <c r="AB70" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC70" t="n">
         <v>8.5</v>
@@ -13222,7 +13222,7 @@
         <v>41</v>
       </c>
       <c r="AN70" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO70" t="n">
         <v>9.5</v>
@@ -13237,13 +13237,13 @@
         <v>51</v>
       </c>
       <c r="AS70" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT70" t="n">
         <v>2.63</v>
       </c>
       <c r="AU70" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV70" t="n">
         <v>67</v>
@@ -13305,22 +13305,22 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H71" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I71" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J71" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="K71" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L71" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="M71" t="n">
         <v>1.05</v>
@@ -13332,19 +13332,19 @@
         <v>1.23</v>
       </c>
       <c r="P71" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R71" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="S71" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="T71" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="U71" t="n">
         <v>1.57</v>
@@ -13356,16 +13356,16 @@
         <v>9.5</v>
       </c>
       <c r="X71" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y71" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Z71" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA71" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AB71" t="n">
         <v>22</v>
@@ -13374,7 +13374,7 @@
         <v>8</v>
       </c>
       <c r="AD71" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AE71" t="n">
         <v>11.75</v>
@@ -13383,46 +13383,46 @@
         <v>45</v>
       </c>
       <c r="AG71" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AH71" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AI71" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ71" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AK71" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL71" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM71" t="n">
         <v>27</v>
       </c>
       <c r="AN71" t="n">
-        <v>4.35</v>
+        <v>4.25</v>
       </c>
       <c r="AO71" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AP71" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AQ71" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AR71" t="n">
         <v>65</v>
       </c>
       <c r="AS71" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT71" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="AU71" t="n">
         <v>6.5</v>
@@ -13431,19 +13431,19 @@
         <v>50</v>
       </c>
       <c r="AW71" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AX71" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AY71" t="n">
         <v>21</v>
       </c>
       <c r="AZ71" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BA71" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BB71" t="n">
         <v>250</v>
@@ -13487,10 +13487,10 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="H72" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I72" t="n">
         <v>2.35</v>
@@ -13499,16 +13499,16 @@
         <v>3.3</v>
       </c>
       <c r="K72" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L72" t="n">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="M72" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N72" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="O72" t="n">
         <v>1.22</v>
@@ -13523,43 +13523,43 @@
         <v>2.07</v>
       </c>
       <c r="S72" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="T72" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="U72" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="V72" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="W72" t="n">
-        <v>11.75</v>
+        <v>10.75</v>
       </c>
       <c r="X72" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="Y72" t="n">
         <v>10</v>
       </c>
       <c r="Z72" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AA72" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AB72" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AC72" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AD72" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AE72" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AF72" t="n">
         <v>40</v>
@@ -13568,22 +13568,22 @@
         <v>250</v>
       </c>
       <c r="AH72" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="AI72" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AJ72" t="n">
         <v>9</v>
       </c>
       <c r="AK72" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL72" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AM72" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN72" t="n">
         <v>5</v>
@@ -13592,43 +13592,43 @@
         <v>15</v>
       </c>
       <c r="AP72" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AQ72" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AR72" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS72" t="n">
         <v>200</v>
       </c>
       <c r="AT72" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="AU72" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AV72" t="n">
         <v>45</v>
       </c>
       <c r="AW72" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="AX72" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AY72" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AZ72" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="BA72" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="BB72" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BC72" t="n">
         <v>51</v>
@@ -13669,10 +13669,10 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="H73" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I73" t="n">
         <v>2.4</v>
@@ -13681,7 +13681,7 @@
         <v>3.3</v>
       </c>
       <c r="K73" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L73" t="n">
         <v>2.95</v>
@@ -13714,13 +13714,13 @@
         <v>1.6</v>
       </c>
       <c r="V73" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="W73" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="X73" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y73" t="n">
         <v>10</v>
@@ -13732,7 +13732,7 @@
         <v>22</v>
       </c>
       <c r="AB73" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC73" t="n">
         <v>7.8</v>
@@ -13744,13 +13744,13 @@
         <v>12</v>
       </c>
       <c r="AF73" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AG73" t="n">
         <v>300</v>
       </c>
       <c r="AH73" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AI73" t="n">
         <v>13</v>
@@ -13762,19 +13762,19 @@
         <v>26</v>
       </c>
       <c r="AL73" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AM73" t="n">
         <v>24</v>
       </c>
       <c r="AN73" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="AO73" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AP73" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ73" t="n">
         <v>65</v>
@@ -13789,10 +13789,10 @@
         <v>2.85</v>
       </c>
       <c r="AU73" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AV73" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW73" t="n">
         <v>4.45</v>
@@ -13801,7 +13801,7 @@
         <v>12.5</v>
       </c>
       <c r="AY73" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AZ73" t="n">
         <v>50</v>
@@ -13863,7 +13863,7 @@
         <v>2.18</v>
       </c>
       <c r="K74" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="L74" t="n">
         <v>4.6</v>
@@ -13887,10 +13887,10 @@
         <v>2.15</v>
       </c>
       <c r="S74" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="T74" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="U74" t="n">
         <v>1.7</v>
@@ -13899,10 +13899,10 @@
         <v>2.05</v>
       </c>
       <c r="W74" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="X74" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Y74" t="n">
         <v>8</v>
@@ -13929,13 +13929,13 @@
         <v>55</v>
       </c>
       <c r="AG74" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AH74" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI74" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ74" t="n">
         <v>14.5</v>
@@ -13950,16 +13950,16 @@
         <v>40</v>
       </c>
       <c r="AN74" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AO74" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AP74" t="n">
         <v>15.5</v>
       </c>
       <c r="AQ74" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR74" t="n">
         <v>50</v>
@@ -13968,7 +13968,7 @@
         <v>175</v>
       </c>
       <c r="AT74" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="AU74" t="n">
         <v>7.1</v>
@@ -14042,13 +14042,13 @@
         <v>3.35</v>
       </c>
       <c r="J75" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="K75" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="L75" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="M75" t="n">
         <v>1.03</v>
@@ -14057,13 +14057,13 @@
         <v>9</v>
       </c>
       <c r="O75" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P75" t="n">
         <v>4.35</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="R75" t="n">
         <v>2.32</v>
@@ -14081,22 +14081,22 @@
         <v>2.5</v>
       </c>
       <c r="W75" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="X75" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y75" t="n">
         <v>8.5</v>
       </c>
       <c r="Z75" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AA75" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AB75" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC75" t="n">
         <v>9</v>
@@ -14114,31 +14114,31 @@
         <v>200</v>
       </c>
       <c r="AH75" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AI75" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ75" t="n">
         <v>11.5</v>
       </c>
       <c r="AK75" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AL75" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM75" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AN75" t="n">
         <v>4.25</v>
       </c>
       <c r="AO75" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AP75" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AQ75" t="n">
         <v>32</v>
@@ -14162,19 +14162,19 @@
         <v>5.7</v>
       </c>
       <c r="AX75" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AY75" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AZ75" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BA75" t="n">
         <v>90</v>
       </c>
       <c r="BB75" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BC75" t="n">
         <v>500</v>
@@ -14215,19 +14215,19 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H76" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I76" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J76" t="n">
         <v>3</v>
       </c>
       <c r="K76" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L76" t="n">
         <v>4.33</v>
@@ -14272,7 +14272,7 @@
         <v>10</v>
       </c>
       <c r="Z76" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA76" t="n">
         <v>21</v>
@@ -14287,7 +14287,7 @@
         <v>6.5</v>
       </c>
       <c r="AE76" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF76" t="n">
         <v>81</v>
@@ -14296,10 +14296,10 @@
         <v>351</v>
       </c>
       <c r="AH76" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI76" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ76" t="n">
         <v>13</v>
@@ -14397,28 +14397,28 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H77" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I77" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J77" t="n">
         <v>2.4</v>
       </c>
       <c r="K77" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L77" t="n">
         <v>5</v>
       </c>
       <c r="M77" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N77" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O77" t="n">
         <v>1.33</v>
@@ -14433,10 +14433,10 @@
         <v>1.75</v>
       </c>
       <c r="S77" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T77" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U77" t="n">
         <v>1.91</v>
@@ -14454,7 +14454,7 @@
         <v>8.5</v>
       </c>
       <c r="Z77" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA77" t="n">
         <v>15</v>
@@ -14463,7 +14463,7 @@
         <v>29</v>
       </c>
       <c r="AC77" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD77" t="n">
         <v>7</v>
@@ -14481,7 +14481,7 @@
         <v>11</v>
       </c>
       <c r="AI77" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ77" t="n">
         <v>15</v>
@@ -14496,7 +14496,7 @@
         <v>41</v>
       </c>
       <c r="AN77" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO77" t="n">
         <v>9.5</v>
@@ -14505,7 +14505,7 @@
         <v>21</v>
       </c>
       <c r="AQ77" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR77" t="n">
         <v>51</v>
@@ -14514,7 +14514,7 @@
         <v>151</v>
       </c>
       <c r="AT77" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU77" t="n">
         <v>8.5</v>
@@ -14523,7 +14523,7 @@
         <v>51</v>
       </c>
       <c r="AW77" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX77" t="n">
         <v>26</v>
@@ -14535,7 +14535,7 @@
         <v>81</v>
       </c>
       <c r="BA77" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB77" t="n">
         <v>251</v>
@@ -14767,16 +14767,16 @@
         <v>3.1</v>
       </c>
       <c r="I79" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="J79" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K79" t="n">
         <v>2.07</v>
       </c>
       <c r="L79" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M79" t="n">
         <v>1.01</v>
@@ -14809,10 +14809,10 @@
         <v>1.98</v>
       </c>
       <c r="W79" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X79" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y79" t="n">
         <v>9.25</v>
@@ -14821,10 +14821,10 @@
         <v>27</v>
       </c>
       <c r="AA79" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB79" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC79" t="n">
         <v>9.25</v>
@@ -14836,52 +14836,52 @@
         <v>13</v>
       </c>
       <c r="AF79" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG79" t="n">
         <v>450</v>
       </c>
       <c r="AH79" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI79" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AJ79" t="n">
         <v>10</v>
       </c>
       <c r="AK79" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AL79" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM79" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AN79" t="n">
         <v>4.4</v>
       </c>
       <c r="AO79" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AP79" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ79" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AR79" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AS79" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT79" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="AU79" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AV79" t="n">
         <v>55</v>
@@ -14890,16 +14890,16 @@
         <v>4.7</v>
       </c>
       <c r="AX79" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AY79" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ79" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="BA79" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BB79" t="n">
         <v>250</v>
@@ -14949,16 +14949,16 @@
         <v>3.65</v>
       </c>
       <c r="I80" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J80" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="K80" t="n">
         <v>2.18</v>
       </c>
       <c r="L80" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="M80" t="n">
         <v>1.01</v>
@@ -14967,13 +14967,13 @@
         <v>7.9</v>
       </c>
       <c r="O80" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P80" t="n">
         <v>2.87</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="R80" t="n">
         <v>1.7</v>
@@ -14991,40 +14991,40 @@
         <v>1.65</v>
       </c>
       <c r="W80" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="X80" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="Y80" t="n">
         <v>8.25</v>
       </c>
       <c r="Z80" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AA80" t="n">
         <v>13.5</v>
       </c>
       <c r="AB80" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC80" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AD80" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AE80" t="n">
         <v>19</v>
       </c>
       <c r="AF80" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AG80" t="n">
         <v>900</v>
       </c>
       <c r="AH80" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AI80" t="n">
         <v>35</v>
@@ -15039,7 +15039,7 @@
         <v>70</v>
       </c>
       <c r="AM80" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN80" t="n">
         <v>3.3</v>
@@ -15048,10 +15048,10 @@
         <v>7.2</v>
       </c>
       <c r="AP80" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AQ80" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR80" t="n">
         <v>55</v>
@@ -15063,7 +15063,7 @@
         <v>2.57</v>
       </c>
       <c r="AU80" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AV80" t="n">
         <v>75</v>
@@ -15075,7 +15075,7 @@
         <v>35</v>
       </c>
       <c r="AY80" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AZ80" t="n">
         <v>250</v>
@@ -15128,31 +15128,31 @@
         <v>1.87</v>
       </c>
       <c r="H81" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I81" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="J81" t="n">
         <v>2.42</v>
       </c>
       <c r="K81" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L81" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="M81" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N81" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="O81" t="n">
         <v>1.39</v>
       </c>
       <c r="P81" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="Q81" t="n">
         <v>2.15</v>
@@ -15173,10 +15173,10 @@
         <v>1.75</v>
       </c>
       <c r="W81" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="X81" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Y81" t="n">
         <v>8.5</v>
@@ -15191,7 +15191,7 @@
         <v>32</v>
       </c>
       <c r="AC81" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AD81" t="n">
         <v>6.3</v>
@@ -15206,7 +15206,7 @@
         <v>900</v>
       </c>
       <c r="AH81" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AI81" t="n">
         <v>21</v>
@@ -15215,7 +15215,7 @@
         <v>14</v>
       </c>
       <c r="AK81" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AL81" t="n">
         <v>45</v>
@@ -15233,10 +15233,10 @@
         <v>18.5</v>
       </c>
       <c r="AQ81" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AR81" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AS81" t="n">
         <v>250</v>
@@ -15245,22 +15245,22 @@
         <v>2.67</v>
       </c>
       <c r="AU81" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AV81" t="n">
         <v>70</v>
       </c>
       <c r="AW81" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AX81" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY81" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ81" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BA81" t="n">
         <v>175</v>
@@ -15307,28 +15307,28 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="H82" t="n">
-        <v>4.35</v>
+        <v>4.15</v>
       </c>
       <c r="I82" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="J82" t="n">
         <v>7.1</v>
       </c>
       <c r="K82" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="L82" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="M82" t="n">
         <v>1.05</v>
       </c>
       <c r="N82" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="O82" t="n">
         <v>1.24</v>
@@ -15343,25 +15343,25 @@
         <v>2.05</v>
       </c>
       <c r="S82" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="T82" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="U82" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="V82" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="W82" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="X82" t="n">
         <v>55</v>
       </c>
       <c r="Y82" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z82" t="n">
         <v>200</v>
@@ -15373,40 +15373,40 @@
         <v>80</v>
       </c>
       <c r="AC82" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AD82" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK82" t="n">
         <v>9</v>
       </c>
-      <c r="AE82" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF82" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG82" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH82" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AI82" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AJ82" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK82" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AL82" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AM82" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AN82" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AO82" t="n">
         <v>50</v>
@@ -15415,40 +15415,40 @@
         <v>45</v>
       </c>
       <c r="AQ82" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AR82" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AS82" t="n">
         <v>500</v>
       </c>
       <c r="AT82" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="AU82" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AV82" t="n">
         <v>80</v>
       </c>
       <c r="AW82" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AX82" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AY82" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ82" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="BA82" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="BB82" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC82" t="n">
         <v>51</v>
@@ -15489,10 +15489,10 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="H83" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="I83" t="n">
         <v>1.34</v>
@@ -15519,7 +15519,7 @@
         <v>3.1</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R83" t="n">
         <v>1.78</v>
@@ -15531,22 +15531,22 @@
         <v>2.77</v>
       </c>
       <c r="U83" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="V83" t="n">
         <v>1.53</v>
       </c>
       <c r="W83" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X83" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="Y83" t="n">
         <v>30</v>
       </c>
       <c r="Z83" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AA83" t="n">
         <v>150</v>
@@ -15558,13 +15558,13 @@
         <v>7</v>
       </c>
       <c r="AD83" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AE83" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF83" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AG83" t="n">
         <v>800</v>
@@ -15585,16 +15585,16 @@
         <v>13</v>
       </c>
       <c r="AM83" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AN83" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AO83" t="n">
         <v>60</v>
       </c>
       <c r="AP83" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AQ83" t="n">
         <v>500</v>
@@ -15609,7 +15609,7 @@
         <v>2.77</v>
       </c>
       <c r="AU83" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AV83" t="n">
         <v>100</v>

--- a/Jogos_da_Semana_FlashScore_2024-09-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-20.xlsx
@@ -747,19 +747,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="H2" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="I2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L2" t="n">
         <v>6.5</v>
@@ -771,16 +771,16 @@
         <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="R2" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="S2" t="n">
         <v>1.36</v>
@@ -798,7 +798,7 @@
         <v>6.5</v>
       </c>
       <c r="X2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
@@ -807,10 +807,10 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC2" t="n">
         <v>11</v>
@@ -828,16 +828,16 @@
         <v>351</v>
       </c>
       <c r="AH2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI2" t="n">
         <v>34</v>
       </c>
       <c r="AJ2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL2" t="n">
         <v>51</v>
@@ -849,13 +849,13 @@
         <v>3.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP2" t="n">
         <v>19</v>
       </c>
       <c r="AQ2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR2" t="n">
         <v>41</v>
@@ -873,7 +873,7 @@
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AX2" t="n">
         <v>34</v>
@@ -882,7 +882,7 @@
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA2" t="n">
         <v>151</v>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H3" t="n">
         <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K3" t="n">
         <v>2.3</v>
       </c>
       <c r="L3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
@@ -1013,7 +1013,7 @@
         <v>12</v>
       </c>
       <c r="AI3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ3" t="n">
         <v>11</v>
@@ -1031,7 +1031,7 @@
         <v>4.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP3" t="n">
         <v>19</v>
@@ -1064,7 +1064,7 @@
         <v>21</v>
       </c>
       <c r="AZ3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA3" t="n">
         <v>51</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J5" t="n">
         <v>3.6</v>
@@ -1311,10 +1311,10 @@
         <v>3.6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
         <v>1.53</v>
@@ -1323,10 +1323,10 @@
         <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R5" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S5" t="n">
         <v>1.57</v>
@@ -1353,13 +1353,13 @@
         <v>29</v>
       </c>
       <c r="AA5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD5" t="n">
         <v>6</v>
@@ -1386,7 +1386,7 @@
         <v>29</v>
       </c>
       <c r="AL5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM5" t="n">
         <v>41</v>
@@ -1416,7 +1416,7 @@
         <v>9</v>
       </c>
       <c r="AV5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW5" t="n">
         <v>4.5</v>
@@ -1475,40 +1475,40 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H6" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="J6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="K6" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O6" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="R6" t="n">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="S6" t="n">
         <v>1.25</v>
@@ -1517,22 +1517,22 @@
         <v>3.75</v>
       </c>
       <c r="U6" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AA6" t="n">
         <v>41</v>
@@ -1544,28 +1544,28 @@
         <v>19</v>
       </c>
       <c r="AD6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH6" t="n">
         <v>9.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ6" t="n">
         <v>8.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL6" t="n">
         <v>11</v>
@@ -1574,22 +1574,22 @@
         <v>21</v>
       </c>
       <c r="AN6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AO6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ6" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AR6" t="n">
         <v>101</v>
       </c>
       <c r="AS6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT6" t="n">
         <v>3.75</v>
@@ -1604,13 +1604,13 @@
         <v>3.6</v>
       </c>
       <c r="AX6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AY6" t="n">
         <v>15</v>
       </c>
       <c r="AZ6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA6" t="n">
         <v>34</v>
@@ -1619,7 +1619,7 @@
         <v>81</v>
       </c>
       <c r="BC6" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BD6" t="n">
         <v>151</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H7" t="n">
         <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J7" t="n">
         <v>2.88</v>
       </c>
       <c r="K7" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M7" t="n">
         <v>1.08</v>
@@ -1687,10 +1687,10 @@
         <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R7" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S7" t="n">
         <v>1.5</v>
@@ -1789,7 +1789,7 @@
         <v>21</v>
       </c>
       <c r="AY7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ7" t="n">
         <v>67</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H8" t="n">
         <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J8" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K8" t="n">
         <v>2.05</v>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
@@ -1869,10 +1869,10 @@
         <v>2.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R8" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S8" t="n">
         <v>1.5</v>
@@ -1881,10 +1881,10 @@
         <v>2.5</v>
       </c>
       <c r="U8" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W8" t="n">
         <v>6</v>
@@ -1905,13 +1905,13 @@
         <v>34</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD8" t="n">
         <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF8" t="n">
         <v>67</v>
@@ -1929,7 +1929,7 @@
         <v>15</v>
       </c>
       <c r="AK8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL8" t="n">
         <v>41</v>
@@ -1941,7 +1941,7 @@
         <v>3.75</v>
       </c>
       <c r="AO8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP8" t="n">
         <v>23</v>
@@ -1968,7 +1968,7 @@
         <v>6</v>
       </c>
       <c r="AX8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY8" t="n">
         <v>34</v>
@@ -2024,7 +2024,7 @@
         <v>1.8</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I9" t="n">
         <v>5.25</v>
@@ -2057,10 +2057,10 @@
         <v>1.44</v>
       </c>
       <c r="S9" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="U9" t="n">
         <v>2.38</v>
@@ -2078,7 +2078,7 @@
         <v>9.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA9" t="n">
         <v>19</v>
@@ -2123,7 +2123,7 @@
         <v>3.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP9" t="n">
         <v>29</v>
@@ -2132,13 +2132,13 @@
         <v>41</v>
       </c>
       <c r="AR9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS9" t="n">
         <v>301</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU9" t="n">
         <v>10</v>
@@ -2934,52 +2934,52 @@
         <v>2.22</v>
       </c>
       <c r="H14" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="I14" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="J14" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="K14" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="L14" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="O14" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="Q14" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="R14" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S14" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="T14" t="n">
-        <v>2.77</v>
+        <v>2.67</v>
       </c>
       <c r="U14" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="V14" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="W14" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="X14" t="n">
         <v>10.5</v>
@@ -2994,13 +2994,13 @@
         <v>18.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AE14" t="n">
         <v>14.5</v>
@@ -3012,43 +3012,43 @@
         <v>600</v>
       </c>
       <c r="AH14" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AI14" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AJ14" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AK14" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL14" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AM14" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="AO14" t="n">
         <v>11.5</v>
       </c>
       <c r="AP14" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AQ14" t="n">
         <v>45</v>
       </c>
       <c r="AR14" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AS14" t="n">
         <v>250</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.77</v>
+        <v>2.67</v>
       </c>
       <c r="AU14" t="n">
         <v>7</v>
@@ -3057,19 +3057,19 @@
         <v>60</v>
       </c>
       <c r="AW14" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AX14" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AY14" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AZ14" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BA14" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BB14" t="n">
         <v>300</v>
@@ -3113,40 +3113,40 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="J15" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="K15" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L15" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P15" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R15" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S15" t="n">
         <v>1.44</v>
@@ -3161,19 +3161,19 @@
         <v>1.75</v>
       </c>
       <c r="W15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X15" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Y15" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Z15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB15" t="n">
         <v>41</v>
@@ -3182,10 +3182,10 @@
         <v>8.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF15" t="n">
         <v>67</v>
@@ -3194,37 +3194,37 @@
         <v>401</v>
       </c>
       <c r="AH15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN15" t="n">
         <v>6.5</v>
       </c>
-      <c r="AI15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>6</v>
-      </c>
       <c r="AO15" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AP15" t="n">
         <v>34</v>
       </c>
       <c r="AQ15" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR15" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS15" t="n">
         <v>301</v>
@@ -3233,31 +3233,31 @@
         <v>2.63</v>
       </c>
       <c r="AU15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV15" t="n">
         <v>67</v>
       </c>
       <c r="AW15" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AX15" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AY15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA15" t="n">
         <v>51</v>
       </c>
       <c r="BB15" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC15" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD15" t="n">
         <v>151</v>
@@ -3295,28 +3295,28 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H16" t="n">
         <v>4.5</v>
       </c>
       <c r="I16" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J16" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
         <v>2.5</v>
       </c>
       <c r="L16" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M16" t="n">
         <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O16" t="n">
         <v>1.17</v>
@@ -3367,13 +3367,13 @@
         <v>9</v>
       </c>
       <c r="AE16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF16" t="n">
         <v>41</v>
       </c>
       <c r="AG16" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH16" t="n">
         <v>19</v>
@@ -3382,7 +3382,7 @@
         <v>34</v>
       </c>
       <c r="AJ16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK16" t="n">
         <v>67</v>
@@ -3397,7 +3397,7 @@
         <v>3.6</v>
       </c>
       <c r="AO16" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP16" t="n">
         <v>17</v>
@@ -3436,7 +3436,7 @@
         <v>101</v>
       </c>
       <c r="BB16" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC16" t="n">
         <v>81</v>
@@ -3689,10 +3689,10 @@
         <v>3.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R18" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S18" t="n">
         <v>1.4</v>
@@ -4387,46 +4387,46 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H22" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I22" t="n">
         <v>4.5</v>
       </c>
       <c r="J22" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K22" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L22" t="n">
         <v>5.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P22" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R22" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S22" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T22" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U22" t="n">
         <v>2.25</v>
@@ -4453,7 +4453,7 @@
         <v>41</v>
       </c>
       <c r="AC22" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD22" t="n">
         <v>6.5</v>
@@ -4468,7 +4468,7 @@
         <v>201</v>
       </c>
       <c r="AH22" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI22" t="n">
         <v>21</v>
@@ -4489,7 +4489,7 @@
         <v>3.6</v>
       </c>
       <c r="AO22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP22" t="n">
         <v>26</v>
@@ -4504,7 +4504,7 @@
         <v>251</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU22" t="n">
         <v>9.5</v>
@@ -4933,22 +4933,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="H25" t="n">
         <v>3.75</v>
       </c>
       <c r="I25" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="J25" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K25" t="n">
         <v>2.4</v>
       </c>
       <c r="L25" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M25" t="n">
         <v>1.03</v>
@@ -4969,7 +4969,7 @@
         <v>2.4</v>
       </c>
       <c r="S25" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T25" t="n">
         <v>3.5</v>
@@ -4987,16 +4987,16 @@
         <v>17</v>
       </c>
       <c r="Y25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z25" t="n">
         <v>29</v>
       </c>
       <c r="AA25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB25" t="n">
         <v>21</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>23</v>
       </c>
       <c r="AC25" t="n">
         <v>17</v>
@@ -5005,7 +5005,7 @@
         <v>7.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF25" t="n">
         <v>34</v>
@@ -5017,7 +5017,7 @@
         <v>12</v>
       </c>
       <c r="AI25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ25" t="n">
         <v>9.5</v>
@@ -5026,7 +5026,7 @@
         <v>23</v>
       </c>
       <c r="AL25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM25" t="n">
         <v>21</v>
@@ -5035,7 +5035,7 @@
         <v>5</v>
       </c>
       <c r="AO25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP25" t="n">
         <v>19</v>
@@ -5062,10 +5062,10 @@
         <v>4.75</v>
       </c>
       <c r="AX25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ25" t="n">
         <v>41</v>
@@ -5080,7 +5080,7 @@
         <v>301</v>
       </c>
       <c r="BD25" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26">
@@ -5479,13 +5479,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="H28" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I28" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="J28" t="n">
         <v>7.5</v>
@@ -5494,7 +5494,7 @@
         <v>2.3</v>
       </c>
       <c r="L28" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="M28" t="n">
         <v>1.05</v>
@@ -5509,16 +5509,16 @@
         <v>3.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R28" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S28" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T28" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U28" t="n">
         <v>2.2</v>
@@ -5530,7 +5530,7 @@
         <v>15</v>
       </c>
       <c r="X28" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y28" t="n">
         <v>21</v>
@@ -5545,10 +5545,10 @@
         <v>51</v>
       </c>
       <c r="AC28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD28" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE28" t="n">
         <v>23</v>
@@ -5569,7 +5569,7 @@
         <v>9</v>
       </c>
       <c r="AK28" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AL28" t="n">
         <v>13</v>
@@ -5578,7 +5578,7 @@
         <v>34</v>
       </c>
       <c r="AN28" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO28" t="n">
         <v>41</v>
@@ -5596,7 +5596,7 @@
         <v>351</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU28" t="n">
         <v>9.5</v>
@@ -5617,7 +5617,7 @@
         <v>21</v>
       </c>
       <c r="BA28" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB28" t="n">
         <v>151</v>
@@ -5667,7 +5667,7 @@
         <v>3.3</v>
       </c>
       <c r="I29" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J29" t="n">
         <v>2.75</v>
@@ -5676,13 +5676,13 @@
         <v>2.2</v>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M29" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O29" t="n">
         <v>1.29</v>
@@ -5691,28 +5691,28 @@
         <v>3.75</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="R29" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S29" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T29" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U29" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V29" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W29" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y29" t="n">
         <v>9</v>
@@ -5745,22 +5745,22 @@
         <v>11</v>
       </c>
       <c r="AI29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ29" t="n">
         <v>12</v>
       </c>
       <c r="AK29" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL29" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM29" t="n">
         <v>34</v>
       </c>
       <c r="AN29" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO29" t="n">
         <v>11</v>
@@ -5778,7 +5778,7 @@
         <v>151</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU29" t="n">
         <v>7.5</v>
@@ -5805,7 +5805,7 @@
         <v>151</v>
       </c>
       <c r="BC29" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD29" t="n">
         <v>151</v>
@@ -6025,22 +6025,22 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H31" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I31" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="J31" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K31" t="n">
         <v>2.38</v>
       </c>
       <c r="L31" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="M31" t="n">
         <v>1.03</v>
@@ -6049,16 +6049,16 @@
         <v>15</v>
       </c>
       <c r="O31" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P31" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R31" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S31" t="n">
         <v>1.3</v>
@@ -6085,7 +6085,7 @@
         <v>41</v>
       </c>
       <c r="AA31" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB31" t="n">
         <v>34</v>
@@ -6124,7 +6124,7 @@
         <v>21</v>
       </c>
       <c r="AN31" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO31" t="n">
         <v>21</v>
@@ -6160,7 +6160,7 @@
         <v>17</v>
       </c>
       <c r="AZ31" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA31" t="n">
         <v>41</v>
@@ -6207,7 +6207,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H32" t="n">
         <v>2.9</v>
@@ -6225,10 +6225,10 @@
         <v>3.75</v>
       </c>
       <c r="M32" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N32" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O32" t="n">
         <v>1.44</v>
@@ -6237,10 +6237,10 @@
         <v>2.63</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R32" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S32" t="n">
         <v>1.53</v>
@@ -6249,16 +6249,16 @@
         <v>2.38</v>
       </c>
       <c r="U32" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V32" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W32" t="n">
         <v>6.5</v>
       </c>
       <c r="X32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y32" t="n">
         <v>10</v>
@@ -6273,7 +6273,7 @@
         <v>41</v>
       </c>
       <c r="AC32" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD32" t="n">
         <v>6</v>
@@ -6333,22 +6333,22 @@
         <v>67</v>
       </c>
       <c r="AW32" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX32" t="n">
         <v>19</v>
       </c>
       <c r="AY32" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ32" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA32" t="n">
         <v>101</v>
       </c>
       <c r="BB32" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC32" t="n">
         <v>81</v>
@@ -6392,10 +6392,10 @@
         <v>3</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I33" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="J33" t="n">
         <v>3.75</v>
@@ -6413,16 +6413,16 @@
         <v>8</v>
       </c>
       <c r="O33" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P33" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="R33" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="S33" t="n">
         <v>1.5</v>
@@ -6431,13 +6431,13 @@
         <v>2.5</v>
       </c>
       <c r="U33" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V33" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W33" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X33" t="n">
         <v>15</v>
@@ -6449,19 +6449,19 @@
         <v>34</v>
       </c>
       <c r="AA33" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB33" t="n">
         <v>41</v>
       </c>
       <c r="AC33" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD33" t="n">
         <v>6</v>
       </c>
       <c r="AE33" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF33" t="n">
         <v>51</v>
@@ -6491,7 +6491,7 @@
         <v>4.75</v>
       </c>
       <c r="AO33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP33" t="n">
         <v>29</v>
@@ -6500,7 +6500,7 @@
         <v>51</v>
       </c>
       <c r="AR33" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS33" t="n">
         <v>251</v>
@@ -6527,10 +6527,10 @@
         <v>51</v>
       </c>
       <c r="BA33" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB33" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC33" t="n">
         <v>81</v>
@@ -6571,13 +6571,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H34" t="n">
         <v>3.4</v>
       </c>
       <c r="I34" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J34" t="n">
         <v>2.88</v>
@@ -6613,10 +6613,10 @@
         <v>2.38</v>
       </c>
       <c r="U34" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V34" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W34" t="n">
         <v>6</v>
@@ -6628,10 +6628,10 @@
         <v>9.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA34" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB34" t="n">
         <v>41</v>
@@ -6700,7 +6700,7 @@
         <v>5.5</v>
       </c>
       <c r="AX34" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY34" t="n">
         <v>34</v>
@@ -6753,40 +6753,40 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="H35" t="n">
         <v>3.1</v>
       </c>
       <c r="I35" t="n">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="J35" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="K35" t="n">
         <v>2.05</v>
       </c>
       <c r="L35" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M35" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N35" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O35" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="P35" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="R35" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="S35" t="n">
         <v>1.44</v>
@@ -6801,25 +6801,25 @@
         <v>1.83</v>
       </c>
       <c r="W35" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z35" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB35" t="n">
         <v>34</v>
       </c>
-      <c r="AA35" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>41</v>
-      </c>
       <c r="AC35" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD35" t="n">
         <v>6</v>
@@ -6834,61 +6834,61 @@
         <v>301</v>
       </c>
       <c r="AH35" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ35" t="n">
         <v>10</v>
       </c>
-      <c r="AJ35" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AK35" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL35" t="n">
         <v>21</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>19</v>
       </c>
       <c r="AM35" t="n">
         <v>34</v>
       </c>
       <c r="AN35" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO35" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP35" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ35" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR35" t="n">
         <v>81</v>
       </c>
       <c r="AS35" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT35" t="n">
         <v>2.63</v>
       </c>
       <c r="AU35" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV35" t="n">
         <v>51</v>
       </c>
       <c r="AW35" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY35" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ35" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA35" t="n">
         <v>67</v>
@@ -6935,19 +6935,19 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H36" t="n">
         <v>3.4</v>
       </c>
       <c r="I36" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J36" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K36" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L36" t="n">
         <v>4.75</v>
@@ -6956,19 +6956,19 @@
         <v>1.06</v>
       </c>
       <c r="N36" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O36" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P36" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R36" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="S36" t="n">
         <v>1.4</v>
@@ -6986,7 +6986,7 @@
         <v>6.5</v>
       </c>
       <c r="X36" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y36" t="n">
         <v>8.5</v>
@@ -7016,19 +7016,19 @@
         <v>301</v>
       </c>
       <c r="AH36" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI36" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ36" t="n">
         <v>15</v>
       </c>
       <c r="AK36" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL36" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM36" t="n">
         <v>41</v>
@@ -7037,7 +7037,7 @@
         <v>3.75</v>
       </c>
       <c r="AO36" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP36" t="n">
         <v>21</v>
@@ -7117,28 +7117,28 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="H37" t="n">
         <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="J37" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K37" t="n">
         <v>1.91</v>
       </c>
       <c r="L37" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M37" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N37" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O37" t="n">
         <v>1.53</v>
@@ -7153,16 +7153,16 @@
         <v>1.44</v>
       </c>
       <c r="S37" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U37" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V37" t="n">
         <v>1.57</v>
-      </c>
-      <c r="T37" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U37" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V37" t="n">
-        <v>1.62</v>
       </c>
       <c r="W37" t="n">
         <v>7</v>
@@ -7171,25 +7171,25 @@
         <v>13</v>
       </c>
       <c r="Y37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z37" t="n">
         <v>34</v>
       </c>
       <c r="AA37" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB37" t="n">
         <v>41</v>
       </c>
       <c r="AC37" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD37" t="n">
         <v>6</v>
       </c>
       <c r="AE37" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF37" t="n">
         <v>81</v>
@@ -7201,25 +7201,25 @@
         <v>6</v>
       </c>
       <c r="AI37" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ37" t="n">
         <v>11</v>
       </c>
       <c r="AK37" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL37" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM37" t="n">
         <v>41</v>
       </c>
       <c r="AN37" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO37" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP37" t="n">
         <v>34</v>
@@ -7228,16 +7228,16 @@
         <v>67</v>
       </c>
       <c r="AR37" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS37" t="n">
         <v>351</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU37" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV37" t="n">
         <v>81</v>
@@ -7255,7 +7255,7 @@
         <v>51</v>
       </c>
       <c r="BA37" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB37" t="n">
         <v>301</v>
@@ -7299,22 +7299,22 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="H38" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I38" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="J38" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="K38" t="n">
         <v>2.05</v>
       </c>
       <c r="L38" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M38" t="n">
         <v>1.07</v>
@@ -7335,10 +7335,10 @@
         <v>1.65</v>
       </c>
       <c r="S38" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T38" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U38" t="n">
         <v>1.83</v>
@@ -7347,16 +7347,16 @@
         <v>1.83</v>
       </c>
       <c r="W38" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X38" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y38" t="n">
         <v>10</v>
       </c>
-      <c r="Y38" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z38" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA38" t="n">
         <v>21</v>
@@ -7365,7 +7365,7 @@
         <v>34</v>
       </c>
       <c r="AC38" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD38" t="n">
         <v>6</v>
@@ -7377,46 +7377,46 @@
         <v>51</v>
       </c>
       <c r="AG38" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH38" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI38" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ38" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK38" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL38" t="n">
         <v>26</v>
       </c>
       <c r="AM38" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN38" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO38" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP38" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ38" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR38" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS38" t="n">
         <v>201</v>
       </c>
       <c r="AT38" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU38" t="n">
         <v>8.5</v>
@@ -7425,10 +7425,10 @@
         <v>51</v>
       </c>
       <c r="AW38" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX38" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY38" t="n">
         <v>29</v>
@@ -7481,22 +7481,22 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.63</v>
+        <v>2.3</v>
       </c>
       <c r="H39" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I39" t="n">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="J39" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="K39" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L39" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M39" t="n">
         <v>1.05</v>
@@ -7505,16 +7505,16 @@
         <v>11</v>
       </c>
       <c r="O39" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P39" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R39" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S39" t="n">
         <v>1.4</v>
@@ -7529,67 +7529,67 @@
         <v>2</v>
       </c>
       <c r="W39" t="n">
+        <v>8</v>
+      </c>
+      <c r="X39" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y39" t="n">
         <v>9.5</v>
       </c>
-      <c r="X39" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>10</v>
-      </c>
       <c r="Z39" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AA39" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB39" t="n">
         <v>29</v>
       </c>
       <c r="AC39" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD39" t="n">
         <v>6.5</v>
       </c>
       <c r="AE39" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF39" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG39" t="n">
         <v>201</v>
       </c>
       <c r="AH39" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI39" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AJ39" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK39" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL39" t="n">
         <v>23</v>
       </c>
-      <c r="AL39" t="n">
-        <v>19</v>
-      </c>
       <c r="AM39" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN39" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP39" t="n">
         <v>23</v>
       </c>
       <c r="AQ39" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR39" t="n">
         <v>67</v>
@@ -7601,22 +7601,22 @@
         <v>2.75</v>
       </c>
       <c r="AU39" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV39" t="n">
         <v>51</v>
       </c>
       <c r="AW39" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AX39" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AY39" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ39" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA39" t="n">
         <v>67</v>
@@ -8051,16 +8051,16 @@
         <v>13</v>
       </c>
       <c r="O42" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P42" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R42" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S42" t="n">
         <v>1.33</v>
@@ -8233,10 +8233,10 @@
         <v>13</v>
       </c>
       <c r="O43" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P43" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q43" t="n">
         <v>1.7</v>
@@ -8394,19 +8394,19 @@
         <v>1.8</v>
       </c>
       <c r="H44" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I44" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J44" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K44" t="n">
         <v>2.25</v>
       </c>
       <c r="L44" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M44" t="n">
         <v>1.04</v>
@@ -8421,10 +8421,10 @@
         <v>3.75</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R44" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S44" t="n">
         <v>1.36</v>
@@ -8466,13 +8466,13 @@
         <v>15</v>
       </c>
       <c r="AF44" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG44" t="n">
         <v>201</v>
       </c>
       <c r="AH44" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI44" t="n">
         <v>21</v>
@@ -8499,7 +8499,7 @@
         <v>19</v>
       </c>
       <c r="AQ44" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR44" t="n">
         <v>51</v>
@@ -8532,7 +8532,7 @@
         <v>81</v>
       </c>
       <c r="BB44" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC44" t="n">
         <v>501</v>
@@ -8573,16 +8573,16 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="H45" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I45" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="J45" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K45" t="n">
         <v>2.05</v>
@@ -8591,10 +8591,10 @@
         <v>4</v>
       </c>
       <c r="M45" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N45" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O45" t="n">
         <v>1.36</v>
@@ -8603,16 +8603,16 @@
         <v>3</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R45" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S45" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T45" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U45" t="n">
         <v>1.95</v>
@@ -8624,22 +8624,22 @@
         <v>6.5</v>
       </c>
       <c r="X45" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y45" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y45" t="n">
-        <v>9</v>
-      </c>
       <c r="Z45" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA45" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB45" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC45" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD45" t="n">
         <v>6.5</v>
@@ -8651,19 +8651,19 @@
         <v>51</v>
       </c>
       <c r="AG45" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH45" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI45" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ45" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK45" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL45" t="n">
         <v>29</v>
@@ -8672,13 +8672,13 @@
         <v>41</v>
       </c>
       <c r="AN45" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO45" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ45" t="n">
         <v>41</v>
@@ -8690,19 +8690,19 @@
         <v>201</v>
       </c>
       <c r="AT45" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU45" t="n">
         <v>8.5</v>
       </c>
       <c r="AV45" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW45" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX45" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY45" t="n">
         <v>29</v>
@@ -8779,16 +8779,16 @@
         <v>6.5</v>
       </c>
       <c r="O46" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P46" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R46" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S46" t="n">
         <v>1.62</v>
@@ -8937,10 +8937,10 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H47" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I47" t="n">
         <v>5</v>
@@ -8949,16 +8949,16 @@
         <v>2.1</v>
       </c>
       <c r="K47" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L47" t="n">
         <v>5.5</v>
       </c>
       <c r="M47" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N47" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O47" t="n">
         <v>1.22</v>
@@ -8967,28 +8967,28 @@
         <v>4</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R47" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S47" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T47" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U47" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V47" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W47" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X47" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y47" t="n">
         <v>8.5</v>
@@ -8997,16 +8997,16 @@
         <v>12</v>
       </c>
       <c r="AA47" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB47" t="n">
         <v>23</v>
       </c>
       <c r="AC47" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD47" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE47" t="n">
         <v>17</v>
@@ -9015,7 +9015,7 @@
         <v>51</v>
       </c>
       <c r="AG47" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH47" t="n">
         <v>15</v>
@@ -9042,7 +9042,7 @@
         <v>8</v>
       </c>
       <c r="AP47" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ47" t="n">
         <v>23</v>
@@ -9051,10 +9051,10 @@
         <v>41</v>
       </c>
       <c r="AS47" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT47" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU47" t="n">
         <v>8</v>
@@ -9069,7 +9069,7 @@
         <v>29</v>
       </c>
       <c r="AY47" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ47" t="n">
         <v>101</v>
@@ -9119,13 +9119,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H48" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I48" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="J48" t="n">
         <v>3.25</v>
@@ -9143,16 +9143,16 @@
         <v>11</v>
       </c>
       <c r="O48" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P48" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="R48" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="S48" t="n">
         <v>1.4</v>
@@ -9170,13 +9170,13 @@
         <v>9.5</v>
       </c>
       <c r="X48" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y48" t="n">
         <v>10</v>
       </c>
       <c r="Z48" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA48" t="n">
         <v>21</v>
@@ -9200,7 +9200,7 @@
         <v>151</v>
       </c>
       <c r="AH48" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI48" t="n">
         <v>13</v>
@@ -9245,10 +9245,10 @@
         <v>51</v>
       </c>
       <c r="AW48" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX48" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY48" t="n">
         <v>23</v>
@@ -9301,22 +9301,22 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="H49" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="I49" t="n">
-        <v>11.75</v>
+        <v>13.5</v>
       </c>
       <c r="J49" t="n">
         <v>1.47</v>
       </c>
       <c r="K49" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="L49" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="M49" t="n">
         <v>1.01</v>
@@ -9340,7 +9340,7 @@
         <v>1.17</v>
       </c>
       <c r="T49" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="U49" t="n">
         <v>1.8</v>
@@ -9349,67 +9349,67 @@
         <v>1.96</v>
       </c>
       <c r="W49" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="X49" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="Y49" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Z49" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AA49" t="n">
         <v>8.25</v>
       </c>
       <c r="AB49" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC49" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AD49" t="n">
         <v>13</v>
       </c>
       <c r="AE49" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF49" t="n">
         <v>50</v>
       </c>
       <c r="AG49" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AH49" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AI49" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AJ49" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AK49" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="AL49" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AM49" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN49" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="AO49" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="AP49" t="n">
         <v>11.5</v>
       </c>
       <c r="AQ49" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AR49" t="n">
         <v>23</v>
@@ -9418,31 +9418,31 @@
         <v>100</v>
       </c>
       <c r="AT49" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="AU49" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AV49" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AW49" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AX49" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AY49" t="n">
         <v>40</v>
       </c>
       <c r="AZ49" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="BA49" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BB49" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BC49" t="n">
         <v>500</v>
@@ -9665,16 +9665,16 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H51" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I51" t="n">
         <v>5.25</v>
       </c>
       <c r="J51" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K51" t="n">
         <v>2.2</v>
@@ -9713,7 +9713,7 @@
         <v>1.75</v>
       </c>
       <c r="W51" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X51" t="n">
         <v>7</v>
@@ -9734,7 +9734,7 @@
         <v>9.5</v>
       </c>
       <c r="AD51" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE51" t="n">
         <v>19</v>
@@ -9746,7 +9746,7 @@
         <v>401</v>
       </c>
       <c r="AH51" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI51" t="n">
         <v>26</v>
@@ -9797,13 +9797,13 @@
         <v>29</v>
       </c>
       <c r="AY51" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ51" t="n">
         <v>101</v>
       </c>
       <c r="BA51" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB51" t="n">
         <v>301</v>
@@ -9847,16 +9847,16 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="H52" t="n">
         <v>4</v>
       </c>
       <c r="I52" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="J52" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K52" t="n">
         <v>2.3</v>
@@ -9889,10 +9889,10 @@
         <v>3.25</v>
       </c>
       <c r="U52" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V52" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W52" t="n">
         <v>13</v>
@@ -9904,10 +9904,10 @@
         <v>13</v>
       </c>
       <c r="Z52" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA52" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB52" t="n">
         <v>34</v>
@@ -9922,22 +9922,22 @@
         <v>15</v>
       </c>
       <c r="AF52" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG52" t="n">
         <v>201</v>
       </c>
       <c r="AH52" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI52" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>9</v>
       </c>
       <c r="AJ52" t="n">
         <v>8.5</v>
       </c>
       <c r="AK52" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL52" t="n">
         <v>13</v>
@@ -9946,16 +9946,16 @@
         <v>23</v>
       </c>
       <c r="AN52" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO52" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP52" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ52" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR52" t="n">
         <v>81</v>
@@ -9973,13 +9973,13 @@
         <v>51</v>
       </c>
       <c r="AW52" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AX52" t="n">
         <v>9</v>
       </c>
       <c r="AY52" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ52" t="n">
         <v>29</v>
@@ -9988,7 +9988,7 @@
         <v>41</v>
       </c>
       <c r="BB52" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC52" t="n">
         <v>501</v>
@@ -10211,22 +10211,22 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H54" t="n">
         <v>2.55</v>
       </c>
       <c r="I54" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J54" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K54" t="n">
         <v>1.83</v>
       </c>
       <c r="L54" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M54" t="n">
         <v>1.14</v>
@@ -10262,7 +10262,7 @@
         <v>5.5</v>
       </c>
       <c r="X54" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y54" t="n">
         <v>11</v>
@@ -10283,7 +10283,7 @@
         <v>5.5</v>
       </c>
       <c r="AE54" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF54" t="n">
         <v>81</v>
@@ -10313,16 +10313,16 @@
         <v>4</v>
       </c>
       <c r="AO54" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP54" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ54" t="n">
         <v>51</v>
       </c>
       <c r="AR54" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS54" t="n">
         <v>351</v>
@@ -10331,16 +10331,16 @@
         <v>2.2</v>
       </c>
       <c r="AU54" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV54" t="n">
         <v>81</v>
       </c>
       <c r="AW54" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX54" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY54" t="n">
         <v>41</v>
@@ -10349,7 +10349,7 @@
         <v>81</v>
       </c>
       <c r="BA54" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB54" t="n">
         <v>351</v>
@@ -10393,22 +10393,22 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="H55" t="n">
         <v>3.4</v>
       </c>
       <c r="I55" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="J55" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K55" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L55" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M55" t="n">
         <v>1.04</v>
@@ -10417,22 +10417,22 @@
         <v>12</v>
       </c>
       <c r="O55" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P55" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="R55" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="S55" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T55" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U55" t="n">
         <v>1.62</v>
@@ -10447,16 +10447,16 @@
         <v>13</v>
       </c>
       <c r="Y55" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z55" t="n">
         <v>23</v>
       </c>
       <c r="AA55" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB55" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC55" t="n">
         <v>12</v>
@@ -10474,7 +10474,7 @@
         <v>151</v>
       </c>
       <c r="AH55" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI55" t="n">
         <v>15</v>
@@ -10510,7 +10510,7 @@
         <v>126</v>
       </c>
       <c r="AT55" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU55" t="n">
         <v>7.5</v>
@@ -10519,7 +10519,7 @@
         <v>51</v>
       </c>
       <c r="AW55" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX55" t="n">
         <v>15</v>
@@ -10534,7 +10534,7 @@
         <v>67</v>
       </c>
       <c r="BB55" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC55" t="n">
         <v>351</v>
@@ -10575,22 +10575,22 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="H56" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I56" t="n">
         <v>3.4</v>
       </c>
-      <c r="I56" t="n">
-        <v>3</v>
-      </c>
       <c r="J56" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="K56" t="n">
         <v>2.38</v>
       </c>
       <c r="L56" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M56" t="n">
         <v>1.03</v>
@@ -10611,10 +10611,10 @@
         <v>2.3</v>
       </c>
       <c r="S56" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T56" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U56" t="n">
         <v>1.5</v>
@@ -10626,16 +10626,16 @@
         <v>11</v>
       </c>
       <c r="X56" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y56" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z56" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA56" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB56" t="n">
         <v>21</v>
@@ -10656,43 +10656,43 @@
         <v>101</v>
       </c>
       <c r="AH56" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI56" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AJ56" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK56" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AL56" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM56" t="n">
         <v>26</v>
       </c>
       <c r="AN56" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO56" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP56" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ56" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR56" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS56" t="n">
         <v>101</v>
       </c>
       <c r="AT56" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU56" t="n">
         <v>7</v>
@@ -10701,22 +10701,22 @@
         <v>41</v>
       </c>
       <c r="AW56" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX56" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY56" t="n">
         <v>21</v>
       </c>
       <c r="AZ56" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA56" t="n">
         <v>51</v>
       </c>
       <c r="BB56" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC56" t="n">
         <v>351</v>
@@ -10757,22 +10757,22 @@
         </is>
       </c>
       <c r="G57" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H57" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J57" t="n">
         <v>3.6</v>
-      </c>
-      <c r="H57" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="J57" t="n">
-        <v>3.75</v>
       </c>
       <c r="K57" t="n">
         <v>2.5</v>
       </c>
       <c r="L57" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M57" t="n">
         <v>1.02</v>
@@ -10823,7 +10823,7 @@
         <v>26</v>
       </c>
       <c r="AC57" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD57" t="n">
         <v>8</v>
@@ -10841,7 +10841,7 @@
         <v>12</v>
       </c>
       <c r="AI57" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ57" t="n">
         <v>9</v>
@@ -10886,7 +10886,7 @@
         <v>4.5</v>
       </c>
       <c r="AX57" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AY57" t="n">
         <v>15</v>
@@ -10969,10 +10969,10 @@
         <v>4.5</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R58" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S58" t="n">
         <v>1.3</v>
@@ -10981,10 +10981,10 @@
         <v>3.4</v>
       </c>
       <c r="U58" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V58" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W58" t="n">
         <v>11</v>
@@ -11017,7 +11017,7 @@
         <v>34</v>
       </c>
       <c r="AG58" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH58" t="n">
         <v>13</v>
@@ -11035,7 +11035,7 @@
         <v>21</v>
       </c>
       <c r="AM58" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN58" t="n">
         <v>4.75</v>
@@ -11080,7 +11080,7 @@
         <v>51</v>
       </c>
       <c r="BB58" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC58" t="n">
         <v>351</v>
@@ -11121,85 +11121,85 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H59" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I59" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="J59" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K59" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L59" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M59" t="n">
         <v>1.02</v>
       </c>
       <c r="N59" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O59" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P59" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R59" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="S59" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T59" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U59" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="V59" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="W59" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="X59" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Y59" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z59" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA59" t="n">
         <v>13</v>
       </c>
       <c r="AB59" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC59" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD59" t="n">
         <v>8</v>
       </c>
       <c r="AE59" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF59" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG59" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AH59" t="n">
         <v>19</v>
@@ -11214,16 +11214,16 @@
         <v>41</v>
       </c>
       <c r="AL59" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM59" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN59" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO59" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP59" t="n">
         <v>15</v>
@@ -11235,37 +11235,37 @@
         <v>41</v>
       </c>
       <c r="AS59" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AT59" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AU59" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AV59" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AW59" t="n">
         <v>6</v>
       </c>
       <c r="AX59" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY59" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ59" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA59" t="n">
         <v>51</v>
       </c>
       <c r="BB59" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC59" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD59" t="n">
         <v>151</v>
@@ -11485,22 +11485,22 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.63</v>
+        <v>2.35</v>
       </c>
       <c r="H61" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I61" t="n">
-        <v>2.63</v>
+        <v>2.9</v>
       </c>
       <c r="J61" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K61" t="n">
         <v>2.2</v>
       </c>
       <c r="L61" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M61" t="n">
         <v>1.05</v>
@@ -11533,22 +11533,22 @@
         <v>2.1</v>
       </c>
       <c r="W61" t="n">
+        <v>9</v>
+      </c>
+      <c r="X61" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y61" t="n">
         <v>9.5</v>
       </c>
-      <c r="X61" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y61" t="n">
-        <v>10</v>
-      </c>
       <c r="Z61" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB61" t="n">
         <v>26</v>
-      </c>
-      <c r="AA61" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>29</v>
       </c>
       <c r="AC61" t="n">
         <v>11</v>
@@ -11566,37 +11566,37 @@
         <v>151</v>
       </c>
       <c r="AH61" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI61" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ61" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK61" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL61" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM61" t="n">
         <v>29</v>
       </c>
       <c r="AN61" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO61" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP61" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ61" t="n">
         <v>41</v>
       </c>
       <c r="AR61" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS61" t="n">
         <v>151</v>
@@ -11611,7 +11611,7 @@
         <v>51</v>
       </c>
       <c r="AW61" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX61" t="n">
         <v>15</v>
@@ -11620,7 +11620,7 @@
         <v>23</v>
       </c>
       <c r="AZ61" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA61" t="n">
         <v>67</v>
@@ -11849,28 +11849,28 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H63" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I63" t="n">
         <v>3.7</v>
       </c>
-      <c r="I63" t="n">
-        <v>3.75</v>
-      </c>
       <c r="J63" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K63" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L63" t="n">
         <v>4</v>
       </c>
       <c r="M63" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N63" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O63" t="n">
         <v>1.2</v>
@@ -11879,16 +11879,16 @@
         <v>4.33</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R63" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S63" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T63" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U63" t="n">
         <v>1.62</v>
@@ -11897,7 +11897,7 @@
         <v>2.2</v>
       </c>
       <c r="W63" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X63" t="n">
         <v>10</v>
@@ -11909,16 +11909,16 @@
         <v>17</v>
       </c>
       <c r="AA63" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB63" t="n">
         <v>21</v>
       </c>
       <c r="AC63" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD63" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE63" t="n">
         <v>13</v>
@@ -11930,7 +11930,7 @@
         <v>151</v>
       </c>
       <c r="AH63" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI63" t="n">
         <v>21</v>
@@ -11951,7 +11951,7 @@
         <v>4</v>
       </c>
       <c r="AO63" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP63" t="n">
         <v>17</v>
@@ -11966,7 +11966,7 @@
         <v>101</v>
       </c>
       <c r="AT63" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU63" t="n">
         <v>7.5</v>
@@ -11978,7 +11978,7 @@
         <v>6</v>
       </c>
       <c r="AX63" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY63" t="n">
         <v>23</v>
@@ -12031,22 +12031,22 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H64" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I64" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="J64" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K64" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L64" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="M64" t="n">
         <v>1.03</v>
@@ -12055,22 +12055,22 @@
         <v>15</v>
       </c>
       <c r="O64" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P64" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R64" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S64" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T64" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U64" t="n">
         <v>1.62</v>
@@ -12079,10 +12079,10 @@
         <v>2.2</v>
       </c>
       <c r="W64" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X64" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y64" t="n">
         <v>15</v>
@@ -12109,10 +12109,10 @@
         <v>41</v>
       </c>
       <c r="AG64" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH64" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI64" t="n">
         <v>9.5</v>
@@ -12121,10 +12121,10 @@
         <v>8.5</v>
       </c>
       <c r="AK64" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL64" t="n">
         <v>13</v>
-      </c>
-      <c r="AL64" t="n">
-        <v>12</v>
       </c>
       <c r="AM64" t="n">
         <v>21</v>
@@ -12133,7 +12133,7 @@
         <v>6.5</v>
       </c>
       <c r="AO64" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP64" t="n">
         <v>26</v>
@@ -12148,7 +12148,7 @@
         <v>151</v>
       </c>
       <c r="AT64" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU64" t="n">
         <v>7.5</v>
@@ -12160,13 +12160,13 @@
         <v>4</v>
       </c>
       <c r="AX64" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AY64" t="n">
         <v>17</v>
       </c>
       <c r="AZ64" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA64" t="n">
         <v>41</v>
@@ -12175,7 +12175,7 @@
         <v>101</v>
       </c>
       <c r="BC64" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BD64" t="n">
         <v>151</v>
@@ -12395,22 +12395,22 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="H66" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I66" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="J66" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K66" t="n">
         <v>1.91</v>
       </c>
       <c r="L66" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M66" t="n">
         <v>1.11</v>
@@ -12419,16 +12419,16 @@
         <v>6.5</v>
       </c>
       <c r="O66" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P66" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R66" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S66" t="n">
         <v>1.57</v>
@@ -12443,19 +12443,19 @@
         <v>1.62</v>
       </c>
       <c r="W66" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X66" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y66" t="n">
         <v>10</v>
       </c>
       <c r="Z66" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA66" t="n">
         <v>21</v>
-      </c>
-      <c r="AA66" t="n">
-        <v>23</v>
       </c>
       <c r="AB66" t="n">
         <v>41</v>
@@ -12470,25 +12470,25 @@
         <v>19</v>
       </c>
       <c r="AF66" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG66" t="n">
         <v>1250</v>
       </c>
       <c r="AH66" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI66" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ66" t="n">
         <v>15</v>
       </c>
-      <c r="AJ66" t="n">
-        <v>13</v>
-      </c>
       <c r="AK66" t="n">
         <v>41</v>
       </c>
       <c r="AL66" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM66" t="n">
         <v>51</v>
@@ -12503,7 +12503,7 @@
         <v>29</v>
       </c>
       <c r="AQ66" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR66" t="n">
         <v>81</v>
@@ -12521,13 +12521,13 @@
         <v>81</v>
       </c>
       <c r="AW66" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX66" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY66" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ66" t="n">
         <v>81</v>
@@ -12941,28 +12941,28 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H69" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I69" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="J69" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K69" t="n">
         <v>2.4</v>
       </c>
       <c r="L69" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="M69" t="n">
         <v>1.01</v>
       </c>
       <c r="N69" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O69" t="n">
         <v>1.17</v>
@@ -12971,10 +12971,10 @@
         <v>4.5</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R69" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="S69" t="n">
         <v>1.29</v>
@@ -12992,10 +12992,10 @@
         <v>17</v>
       </c>
       <c r="X69" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y69" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z69" t="n">
         <v>51</v>
@@ -13007,7 +13007,7 @@
         <v>34</v>
       </c>
       <c r="AC69" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD69" t="n">
         <v>8.5</v>
@@ -13073,16 +13073,16 @@
         <v>8</v>
       </c>
       <c r="AY69" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ69" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA69" t="n">
         <v>41</v>
       </c>
       <c r="BB69" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC69" t="n">
         <v>81</v>
@@ -13123,40 +13123,40 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H70" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I70" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J70" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="K70" t="n">
         <v>2.1</v>
       </c>
       <c r="L70" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M70" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N70" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O70" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P70" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R70" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S70" t="n">
         <v>1.44</v>
@@ -13177,7 +13177,7 @@
         <v>7.5</v>
       </c>
       <c r="Y70" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z70" t="n">
         <v>13</v>
@@ -13207,10 +13207,10 @@
         <v>11</v>
       </c>
       <c r="AI70" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ70" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK70" t="n">
         <v>51</v>
@@ -13225,13 +13225,13 @@
         <v>3.6</v>
       </c>
       <c r="AO70" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP70" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ70" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR70" t="n">
         <v>51</v>
@@ -13243,19 +13243,19 @@
         <v>2.63</v>
       </c>
       <c r="AU70" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV70" t="n">
         <v>67</v>
       </c>
       <c r="AW70" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX70" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY70" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ70" t="n">
         <v>101</v>
@@ -13356,13 +13356,13 @@
         <v>9.5</v>
       </c>
       <c r="X71" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="Y71" t="n">
         <v>8.5</v>
       </c>
       <c r="Z71" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA71" t="n">
         <v>15.5</v>
@@ -13383,10 +13383,10 @@
         <v>45</v>
       </c>
       <c r="AG71" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AH71" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AI71" t="n">
         <v>18</v>
@@ -13487,28 +13487,28 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H72" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I72" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="J72" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K72" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="L72" t="n">
-        <v>2.82</v>
+        <v>2.95</v>
       </c>
       <c r="M72" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N72" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="O72" t="n">
         <v>1.22</v>
@@ -13523,43 +13523,43 @@
         <v>2.07</v>
       </c>
       <c r="S72" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="T72" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="U72" t="n">
         <v>1.55</v>
       </c>
       <c r="V72" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="W72" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="X72" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y72" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="Z72" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AA72" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AB72" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AC72" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AD72" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AE72" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AF72" t="n">
         <v>40</v>
@@ -13568,43 +13568,43 @@
         <v>250</v>
       </c>
       <c r="AH72" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AI72" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AJ72" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AK72" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL72" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM72" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN72" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AO72" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP72" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AQ72" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AR72" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AS72" t="n">
         <v>200</v>
       </c>
       <c r="AT72" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="AU72" t="n">
         <v>6.4</v>
@@ -13613,19 +13613,19 @@
         <v>45</v>
       </c>
       <c r="AW72" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="AX72" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AY72" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AZ72" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="BA72" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="BB72" t="n">
         <v>175</v>
@@ -13669,22 +13669,22 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.77</v>
+        <v>2.65</v>
       </c>
       <c r="H73" t="n">
         <v>3.3</v>
       </c>
       <c r="I73" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="J73" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K73" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L73" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="M73" t="n">
         <v>1.05</v>
@@ -13699,16 +13699,16 @@
         <v>3.55</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="R73" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S73" t="n">
         <v>1.37</v>
       </c>
       <c r="T73" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="U73" t="n">
         <v>1.6</v>
@@ -13717,19 +13717,19 @@
         <v>2.2</v>
       </c>
       <c r="W73" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="X73" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y73" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="Z73" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA73" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB73" t="n">
         <v>26</v>
@@ -13750,16 +13750,16 @@
         <v>300</v>
       </c>
       <c r="AH73" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ73" t="n">
         <v>9.25</v>
       </c>
-      <c r="AI73" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ73" t="n">
-        <v>9</v>
-      </c>
       <c r="AK73" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AL73" t="n">
         <v>18.5</v>
@@ -13768,7 +13768,7 @@
         <v>24</v>
       </c>
       <c r="AN73" t="n">
-        <v>4.85</v>
+        <v>4.75</v>
       </c>
       <c r="AO73" t="n">
         <v>14.5</v>
@@ -13786,7 +13786,7 @@
         <v>250</v>
       </c>
       <c r="AT73" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="AU73" t="n">
         <v>6.6</v>
@@ -13795,13 +13795,13 @@
         <v>50</v>
       </c>
       <c r="AW73" t="n">
-        <v>4.45</v>
+        <v>4.55</v>
       </c>
       <c r="AX73" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AY73" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AZ73" t="n">
         <v>50</v>
@@ -13851,82 +13851,82 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H74" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I74" t="n">
         <v>4.5</v>
       </c>
       <c r="J74" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="K74" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="L74" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="M74" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N74" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O74" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P74" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="R74" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="S74" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="T74" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="U74" t="n">
         <v>1.7</v>
       </c>
       <c r="V74" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="W74" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="X74" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Y74" t="n">
         <v>8</v>
       </c>
       <c r="Z74" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA74" t="n">
         <v>12.5</v>
       </c>
       <c r="AB74" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC74" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD74" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AE74" t="n">
         <v>14.5</v>
       </c>
       <c r="AF74" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG74" t="n">
         <v>400</v>
@@ -13950,49 +13950,49 @@
         <v>40</v>
       </c>
       <c r="AN74" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="AO74" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AP74" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AQ74" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AR74" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AS74" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT74" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="AU74" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AV74" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW74" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AX74" t="n">
         <v>24</v>
       </c>
       <c r="AY74" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ74" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BA74" t="n">
         <v>150</v>
       </c>
       <c r="BB74" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC74" t="n">
         <v>51</v>
@@ -14033,97 +14033,97 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="H75" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="I75" t="n">
         <v>3.35</v>
       </c>
       <c r="J75" t="n">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="K75" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="L75" t="n">
         <v>3.75</v>
       </c>
       <c r="M75" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N75" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O75" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P75" t="n">
-        <v>4.35</v>
+        <v>4.1</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="R75" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="S75" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="T75" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="U75" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V75" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="W75" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X75" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y75" t="n">
         <v>8.5</v>
       </c>
       <c r="Z75" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA75" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AB75" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AC75" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD75" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AE75" t="n">
         <v>11.25</v>
       </c>
       <c r="AF75" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG75" t="n">
         <v>200</v>
       </c>
       <c r="AH75" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI75" t="n">
         <v>21</v>
       </c>
       <c r="AJ75" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AK75" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AL75" t="n">
         <v>26</v>
@@ -14135,43 +14135,43 @@
         <v>4.25</v>
       </c>
       <c r="AO75" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AP75" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AQ75" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AR75" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AS75" t="n">
         <v>150</v>
       </c>
       <c r="AT75" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="AU75" t="n">
         <v>6.3</v>
       </c>
       <c r="AV75" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AW75" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AX75" t="n">
         <v>18</v>
       </c>
       <c r="AY75" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ75" t="n">
         <v>80</v>
       </c>
       <c r="BA75" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BB75" t="n">
         <v>200</v>
@@ -14579,22 +14579,22 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="H78" t="n">
         <v>2.8</v>
       </c>
       <c r="I78" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="J78" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K78" t="n">
         <v>1.95</v>
       </c>
       <c r="L78" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M78" t="n">
         <v>1.1</v>
@@ -14636,7 +14636,7 @@
         <v>11</v>
       </c>
       <c r="Z78" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA78" t="n">
         <v>26</v>
@@ -14660,19 +14660,19 @@
         <v>1000</v>
       </c>
       <c r="AH78" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI78" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ78" t="n">
         <v>12</v>
-      </c>
-      <c r="AJ78" t="n">
-        <v>11</v>
       </c>
       <c r="AK78" t="n">
         <v>29</v>
       </c>
       <c r="AL78" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM78" t="n">
         <v>41</v>
@@ -14681,7 +14681,7 @@
         <v>4.5</v>
       </c>
       <c r="AO78" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP78" t="n">
         <v>29</v>
@@ -14705,7 +14705,7 @@
         <v>67</v>
       </c>
       <c r="AW78" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX78" t="n">
         <v>17</v>
@@ -14717,10 +14717,10 @@
         <v>51</v>
       </c>
       <c r="BA78" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB78" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC78" t="n">
         <v>51</v>
@@ -14761,19 +14761,19 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="H79" t="n">
         <v>3.1</v>
       </c>
       <c r="I79" t="n">
-        <v>2.77</v>
+        <v>2.7</v>
       </c>
       <c r="J79" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K79" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L79" t="n">
         <v>3.3</v>
@@ -14809,22 +14809,22 @@
         <v>1.98</v>
       </c>
       <c r="W79" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="X79" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y79" t="n">
         <v>9.25</v>
       </c>
       <c r="Z79" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AA79" t="n">
         <v>20</v>
       </c>
       <c r="AB79" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC79" t="n">
         <v>9.25</v>
@@ -14836,16 +14836,16 @@
         <v>13</v>
       </c>
       <c r="AF79" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG79" t="n">
         <v>450</v>
       </c>
       <c r="AH79" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AI79" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ79" t="n">
         <v>10</v>
@@ -14860,16 +14860,16 @@
         <v>32</v>
       </c>
       <c r="AN79" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AO79" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AP79" t="n">
         <v>19</v>
       </c>
       <c r="AQ79" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR79" t="n">
         <v>75</v>
@@ -14881,13 +14881,13 @@
         <v>2.55</v>
       </c>
       <c r="AU79" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AV79" t="n">
         <v>55</v>
       </c>
       <c r="AW79" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="AX79" t="n">
         <v>15</v>
@@ -14896,7 +14896,7 @@
         <v>21</v>
       </c>
       <c r="AZ79" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BA79" t="n">
         <v>100</v>
@@ -14943,22 +14943,22 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H80" t="n">
         <v>3.65</v>
       </c>
       <c r="I80" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="J80" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="K80" t="n">
         <v>2.18</v>
       </c>
       <c r="L80" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="M80" t="n">
         <v>1.01</v>
@@ -14967,13 +14967,13 @@
         <v>7.9</v>
       </c>
       <c r="O80" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P80" t="n">
         <v>2.87</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="R80" t="n">
         <v>1.7</v>
@@ -14985,16 +14985,16 @@
         <v>2.6</v>
       </c>
       <c r="U80" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="V80" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="W80" t="n">
         <v>5.9</v>
       </c>
       <c r="X80" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="Y80" t="n">
         <v>8.25</v>
@@ -15009,7 +15009,7 @@
         <v>30</v>
       </c>
       <c r="AC80" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AD80" t="n">
         <v>7.2</v>
@@ -15018,40 +15018,40 @@
         <v>19</v>
       </c>
       <c r="AF80" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AG80" t="n">
         <v>900</v>
       </c>
       <c r="AH80" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AI80" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AJ80" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AK80" t="n">
         <v>120</v>
       </c>
       <c r="AL80" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM80" t="n">
         <v>70</v>
-      </c>
-      <c r="AM80" t="n">
-        <v>75</v>
       </c>
       <c r="AN80" t="n">
         <v>3.3</v>
       </c>
       <c r="AO80" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AP80" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AQ80" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR80" t="n">
         <v>55</v>
@@ -15060,22 +15060,22 @@
         <v>250</v>
       </c>
       <c r="AT80" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="AU80" t="n">
         <v>7.9</v>
       </c>
       <c r="AV80" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AW80" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AX80" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AY80" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AZ80" t="n">
         <v>250</v>
@@ -15125,22 +15125,22 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="H81" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I81" t="n">
-        <v>4.05</v>
+        <v>4.2</v>
       </c>
       <c r="J81" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="K81" t="n">
         <v>2.1</v>
       </c>
       <c r="L81" t="n">
-        <v>4.5</v>
+        <v>4.65</v>
       </c>
       <c r="M81" t="n">
         <v>1.09</v>
@@ -15149,70 +15149,70 @@
         <v>6.3</v>
       </c>
       <c r="O81" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P81" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R81" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S81" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T81" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="U81" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V81" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="W81" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="X81" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="Y81" t="n">
         <v>8.5</v>
       </c>
       <c r="Z81" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AA81" t="n">
         <v>16.5</v>
       </c>
       <c r="AB81" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC81" t="n">
         <v>6.3</v>
       </c>
       <c r="AD81" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AE81" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AF81" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG81" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AH81" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AI81" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ81" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AK81" t="n">
         <v>70</v>
@@ -15221,52 +15221,52 @@
         <v>45</v>
       </c>
       <c r="AM81" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN81" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AO81" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AP81" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AQ81" t="n">
         <v>32</v>
       </c>
       <c r="AR81" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AS81" t="n">
         <v>250</v>
       </c>
       <c r="AT81" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="AU81" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AV81" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AW81" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AX81" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY81" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AZ81" t="n">
         <v>150</v>
       </c>
       <c r="BA81" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BB81" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BC81" t="n">
         <v>51</v>
@@ -15307,88 +15307,88 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="H82" t="n">
         <v>4.15</v>
       </c>
       <c r="I82" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="J82" t="n">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="K82" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="L82" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="M82" t="n">
         <v>1.05</v>
       </c>
       <c r="N82" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="O82" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P82" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R82" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S82" t="n">
         <v>1.36</v>
       </c>
       <c r="T82" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="U82" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="V82" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="W82" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="X82" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="Y82" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Z82" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AA82" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AB82" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AC82" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AD82" t="n">
         <v>8.5</v>
       </c>
       <c r="AE82" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AF82" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AG82" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AH82" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AI82" t="n">
         <v>6.5</v>
@@ -15397,34 +15397,34 @@
         <v>8.25</v>
       </c>
       <c r="AK82" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AL82" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AM82" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN82" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="AO82" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AP82" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AQ82" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AR82" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AS82" t="n">
         <v>500</v>
       </c>
       <c r="AT82" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="AU82" t="n">
         <v>8.25</v>
@@ -15436,19 +15436,19 @@
         <v>3.2</v>
       </c>
       <c r="AX82" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="AY82" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ82" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="BA82" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="BB82" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC82" t="n">
         <v>51</v>
@@ -15489,22 +15489,22 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="H83" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="I83" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="J83" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="K83" t="n">
         <v>2.27</v>
       </c>
       <c r="L83" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="M83" t="n">
         <v>1.07</v>
@@ -15522,7 +15522,7 @@
         <v>1.95</v>
       </c>
       <c r="R83" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S83" t="n">
         <v>1.39</v>
@@ -15537,40 +15537,40 @@
         <v>1.53</v>
       </c>
       <c r="W83" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X83" t="n">
         <v>75</v>
       </c>
       <c r="Y83" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z83" t="n">
         <v>350</v>
       </c>
       <c r="AA83" t="n">
+        <v>175</v>
+      </c>
+      <c r="AB83" t="n">
         <v>150</v>
-      </c>
-      <c r="AB83" t="n">
-        <v>120</v>
       </c>
       <c r="AC83" t="n">
         <v>7</v>
       </c>
       <c r="AD83" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AE83" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF83" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AG83" t="n">
         <v>800</v>
       </c>
       <c r="AH83" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AI83" t="n">
         <v>5.4</v>
@@ -15582,19 +15582,19 @@
         <v>7.9</v>
       </c>
       <c r="AL83" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AM83" t="n">
         <v>37</v>
       </c>
       <c r="AN83" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AO83" t="n">
+        <v>65</v>
+      </c>
+      <c r="AP83" t="n">
         <v>60</v>
-      </c>
-      <c r="AP83" t="n">
-        <v>55</v>
       </c>
       <c r="AQ83" t="n">
         <v>500</v>
@@ -15609,7 +15609,7 @@
         <v>2.77</v>
       </c>
       <c r="AU83" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AV83" t="n">
         <v>100</v>
@@ -15618,16 +15618,16 @@
         <v>3</v>
       </c>
       <c r="AX83" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AY83" t="n">
         <v>18.5</v>
       </c>
       <c r="AZ83" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="BA83" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BB83" t="n">
         <v>300</v>

--- a/Jogos_da_Semana_FlashScore_2024-09-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-20.xlsx
@@ -1842,13 +1842,13 @@
         <v>1.91</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J8" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K8" t="n">
         <v>2.05</v>
@@ -1857,10 +1857,10 @@
         <v>4.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
         <v>1.4</v>
@@ -1875,10 +1875,10 @@
         <v>1.62</v>
       </c>
       <c r="S8" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T8" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U8" t="n">
         <v>2</v>
@@ -1914,10 +1914,10 @@
         <v>17</v>
       </c>
       <c r="AF8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AH8" t="n">
         <v>10</v>
@@ -1956,10 +1956,10 @@
         <v>201</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV8" t="n">
         <v>67</v>
@@ -2021,16 +2021,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H9" t="n">
         <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K9" t="n">
         <v>1.91</v>
@@ -2063,16 +2063,16 @@
         <v>2.25</v>
       </c>
       <c r="U9" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V9" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W9" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="X9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y9" t="n">
         <v>9.5</v>
@@ -2102,7 +2102,7 @@
         <v>201</v>
       </c>
       <c r="AH9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI9" t="n">
         <v>23</v>
@@ -2111,7 +2111,7 @@
         <v>19</v>
       </c>
       <c r="AK9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL9" t="n">
         <v>51</v>
@@ -2156,7 +2156,7 @@
         <v>41</v>
       </c>
       <c r="AZ9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA9" t="n">
         <v>201</v>
@@ -3841,22 +3841,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H19" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I19" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J19" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K19" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L19" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
@@ -3883,10 +3883,10 @@
         <v>3.25</v>
       </c>
       <c r="U19" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V19" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W19" t="n">
         <v>8</v>
@@ -3907,7 +3907,7 @@
         <v>23</v>
       </c>
       <c r="AC19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD19" t="n">
         <v>7.5</v>
@@ -3925,7 +3925,7 @@
         <v>15</v>
       </c>
       <c r="AI19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ19" t="n">
         <v>17</v>
@@ -3940,16 +3940,16 @@
         <v>41</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO19" t="n">
         <v>8</v>
       </c>
       <c r="AP19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR19" t="n">
         <v>41</v>
@@ -3973,10 +3973,10 @@
         <v>26</v>
       </c>
       <c r="AY19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ19" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA19" t="n">
         <v>101</v>
@@ -4387,94 +4387,94 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="H22" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="I22" t="n">
         <v>4.5</v>
       </c>
       <c r="J22" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="K22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N22" t="n">
+        <v>9</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U22" t="n">
         <v>2</v>
       </c>
-      <c r="L22" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N22" t="n">
-        <v>8</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.25</v>
-      </c>
       <c r="V22" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="W22" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X22" t="n">
         <v>7.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA22" t="n">
         <v>15</v>
       </c>
-      <c r="AA22" t="n">
+      <c r="AB22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE22" t="n">
         <v>19</v>
       </c>
-      <c r="AB22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>21</v>
-      </c>
       <c r="AF22" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG22" t="n">
         <v>201</v>
       </c>
       <c r="AH22" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AI22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK22" t="n">
         <v>51</v>
@@ -4483,52 +4483,52 @@
         <v>41</v>
       </c>
       <c r="AM22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN22" t="n">
         <v>3.6</v>
       </c>
       <c r="AO22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX22" t="n">
         <v>26</v>
       </c>
-      <c r="AQ22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>29</v>
-      </c>
       <c r="AY22" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ22" t="n">
         <v>101</v>
       </c>
       <c r="BA22" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB22" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="BC22" t="n">
         <v>126</v>
@@ -5497,22 +5497,22 @@
         <v>1.91</v>
       </c>
       <c r="M28" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N28" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O28" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P28" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R28" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S28" t="n">
         <v>1.36</v>
@@ -9665,28 +9665,28 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H51" t="n">
         <v>3.8</v>
       </c>
       <c r="I51" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="J51" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K51" t="n">
         <v>2.2</v>
       </c>
       <c r="L51" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M51" t="n">
         <v>1.06</v>
       </c>
       <c r="N51" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O51" t="n">
         <v>1.33</v>
@@ -9701,16 +9701,16 @@
         <v>1.75</v>
       </c>
       <c r="S51" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T51" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U51" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V51" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W51" t="n">
         <v>6</v>
@@ -9722,7 +9722,7 @@
         <v>8.5</v>
       </c>
       <c r="Z51" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA51" t="n">
         <v>15</v>
@@ -9737,13 +9737,13 @@
         <v>7.5</v>
       </c>
       <c r="AE51" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF51" t="n">
         <v>67</v>
       </c>
       <c r="AG51" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AH51" t="n">
         <v>12</v>
@@ -9755,7 +9755,7 @@
         <v>17</v>
       </c>
       <c r="AK51" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL51" t="n">
         <v>41</v>
@@ -9764,7 +9764,7 @@
         <v>51</v>
       </c>
       <c r="AN51" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO51" t="n">
         <v>8.5</v>
@@ -9773,7 +9773,7 @@
         <v>21</v>
       </c>
       <c r="AQ51" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR51" t="n">
         <v>51</v>
@@ -9782,7 +9782,7 @@
         <v>151</v>
       </c>
       <c r="AT51" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU51" t="n">
         <v>9</v>
@@ -9794,19 +9794,19 @@
         <v>7</v>
       </c>
       <c r="AX51" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY51" t="n">
         <v>41</v>
       </c>
       <c r="AZ51" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA51" t="n">
         <v>151</v>
       </c>
       <c r="BB51" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC51" t="n">
         <v>126</v>
@@ -9847,13 +9847,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H52" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I52" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="J52" t="n">
         <v>4.75</v>
@@ -9862,13 +9862,13 @@
         <v>2.3</v>
       </c>
       <c r="L52" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M52" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N52" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O52" t="n">
         <v>1.22</v>
@@ -9877,10 +9877,10 @@
         <v>4</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R52" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S52" t="n">
         <v>1.33</v>
@@ -9901,7 +9901,7 @@
         <v>23</v>
       </c>
       <c r="Y52" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z52" t="n">
         <v>51</v>
@@ -9910,7 +9910,7 @@
         <v>34</v>
       </c>
       <c r="AB52" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC52" t="n">
         <v>13</v>
@@ -9958,16 +9958,16 @@
         <v>81</v>
       </c>
       <c r="AR52" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS52" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT52" t="n">
         <v>3.25</v>
       </c>
       <c r="AU52" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV52" t="n">
         <v>51</v>
@@ -9976,13 +9976,13 @@
         <v>3.75</v>
       </c>
       <c r="AX52" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AY52" t="n">
         <v>19</v>
       </c>
       <c r="AZ52" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA52" t="n">
         <v>41</v>
@@ -14579,16 +14579,16 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H78" t="n">
         <v>2.8</v>
       </c>
       <c r="I78" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J78" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K78" t="n">
         <v>1.95</v>
@@ -14615,10 +14615,10 @@
         <v>1.5</v>
       </c>
       <c r="S78" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T78" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U78" t="n">
         <v>2</v>
@@ -14636,7 +14636,7 @@
         <v>11</v>
       </c>
       <c r="Z78" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA78" t="n">
         <v>26</v>
@@ -14657,10 +14657,10 @@
         <v>67</v>
       </c>
       <c r="AG78" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AH78" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI78" t="n">
         <v>13</v>
@@ -14672,7 +14672,7 @@
         <v>29</v>
       </c>
       <c r="AL78" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM78" t="n">
         <v>41</v>
@@ -14681,7 +14681,7 @@
         <v>4.5</v>
       </c>
       <c r="AO78" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP78" t="n">
         <v>29</v>
@@ -14693,10 +14693,10 @@
         <v>81</v>
       </c>
       <c r="AS78" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT78" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU78" t="n">
         <v>9</v>
@@ -14761,40 +14761,40 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="H79" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I79" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="J79" t="n">
         <v>3.1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J79" t="n">
-        <v>3.05</v>
       </c>
       <c r="K79" t="n">
         <v>2.05</v>
       </c>
       <c r="L79" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M79" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N79" t="n">
-        <v>8.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O79" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P79" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R79" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S79" t="n">
         <v>1.39</v>
@@ -14803,49 +14803,49 @@
         <v>2.57</v>
       </c>
       <c r="U79" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="V79" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="W79" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="X79" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y79" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z79" t="n">
         <v>29</v>
       </c>
       <c r="AA79" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB79" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AC79" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AD79" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AE79" t="n">
         <v>13</v>
       </c>
       <c r="AF79" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG79" t="n">
         <v>450</v>
       </c>
       <c r="AH79" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AI79" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AJ79" t="n">
         <v>10</v>
@@ -14863,22 +14863,22 @@
         <v>4.5</v>
       </c>
       <c r="AO79" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AP79" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AQ79" t="n">
         <v>55</v>
       </c>
       <c r="AR79" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AS79" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT79" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="AU79" t="n">
         <v>6.5</v>
@@ -14890,7 +14890,7 @@
         <v>4.65</v>
       </c>
       <c r="AX79" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AY79" t="n">
         <v>21</v>
@@ -14949,13 +14949,13 @@
         <v>3.65</v>
       </c>
       <c r="I80" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="J80" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="K80" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L80" t="n">
         <v>5.6</v>
@@ -14985,16 +14985,16 @@
         <v>2.6</v>
       </c>
       <c r="U80" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="V80" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="W80" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="X80" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="Y80" t="n">
         <v>8.25</v>
@@ -15006,7 +15006,7 @@
         <v>13.5</v>
       </c>
       <c r="AB80" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC80" t="n">
         <v>9</v>
@@ -15015,7 +15015,7 @@
         <v>7.2</v>
       </c>
       <c r="AE80" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AF80" t="n">
         <v>100</v>
@@ -15024,10 +15024,10 @@
         <v>900</v>
       </c>
       <c r="AH80" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI80" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ80" t="n">
         <v>18.5</v>
@@ -15039,22 +15039,22 @@
         <v>65</v>
       </c>
       <c r="AM80" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN80" t="n">
         <v>3.3</v>
       </c>
       <c r="AO80" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AP80" t="n">
         <v>17.5</v>
       </c>
       <c r="AQ80" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR80" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AS80" t="n">
         <v>250</v>
@@ -15063,13 +15063,13 @@
         <v>2.55</v>
       </c>
       <c r="AU80" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AV80" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AW80" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AX80" t="n">
         <v>32</v>
@@ -15078,7 +15078,7 @@
         <v>37</v>
       </c>
       <c r="AZ80" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BA80" t="n">
         <v>250</v>

--- a/Jogos_da_Semana_FlashScore_2024-09-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-20.xlsx
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H9" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K9" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M9" t="n">
         <v>1.11</v>
@@ -2078,7 +2078,7 @@
         <v>9.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA9" t="n">
         <v>19</v>
@@ -2090,10 +2090,10 @@
         <v>6</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF9" t="n">
         <v>101</v>
@@ -2105,10 +2105,10 @@
         <v>10</v>
       </c>
       <c r="AI9" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AJ9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK9" t="n">
         <v>67</v>
@@ -2120,16 +2120,16 @@
         <v>67</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP9" t="n">
         <v>29</v>
       </c>
       <c r="AQ9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR9" t="n">
         <v>67</v>
@@ -2141,13 +2141,13 @@
         <v>2.25</v>
       </c>
       <c r="AU9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV9" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX9" t="n">
         <v>34</v>
@@ -2159,7 +2159,7 @@
         <v>151</v>
       </c>
       <c r="BA9" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB9" t="n">
         <v>501</v>
@@ -3841,22 +3841,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="H19" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I19" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="J19" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K19" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
@@ -3883,31 +3883,31 @@
         <v>3.25</v>
       </c>
       <c r="U19" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V19" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W19" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X19" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y19" t="n">
         <v>8.5</v>
       </c>
       <c r="Z19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA19" t="n">
         <v>12</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>13</v>
       </c>
       <c r="AB19" t="n">
         <v>23</v>
       </c>
       <c r="AC19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD19" t="n">
         <v>7.5</v>
@@ -3922,10 +3922,10 @@
         <v>201</v>
       </c>
       <c r="AH19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ19" t="n">
         <v>17</v>
@@ -3940,16 +3940,16 @@
         <v>41</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO19" t="n">
         <v>8</v>
       </c>
       <c r="AP19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR19" t="n">
         <v>41</v>
@@ -3970,13 +3970,13 @@
         <v>7</v>
       </c>
       <c r="AX19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ19" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA19" t="n">
         <v>101</v>
@@ -4387,28 +4387,28 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H22" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I22" t="n">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="J22" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K22" t="n">
         <v>2.1</v>
       </c>
       <c r="L22" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M22" t="n">
         <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O22" t="n">
         <v>1.33</v>
@@ -4453,28 +4453,28 @@
         <v>29</v>
       </c>
       <c r="AC22" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD22" t="n">
         <v>7</v>
       </c>
       <c r="AE22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF22" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG22" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK22" t="n">
         <v>51</v>
@@ -4483,19 +4483,19 @@
         <v>41</v>
       </c>
       <c r="AM22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN22" t="n">
         <v>3.6</v>
       </c>
       <c r="AO22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP22" t="n">
         <v>21</v>
       </c>
       <c r="AQ22" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR22" t="n">
         <v>51</v>
@@ -4507,7 +4507,7 @@
         <v>2.63</v>
       </c>
       <c r="AU22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV22" t="n">
         <v>67</v>
@@ -4516,7 +4516,7 @@
         <v>6.5</v>
       </c>
       <c r="AX22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY22" t="n">
         <v>34</v>
@@ -5491,7 +5491,7 @@
         <v>7.5</v>
       </c>
       <c r="K28" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L28" t="n">
         <v>1.91</v>
@@ -5527,7 +5527,7 @@
         <v>1.62</v>
       </c>
       <c r="W28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X28" t="n">
         <v>41</v>
@@ -5560,7 +5560,7 @@
         <v>1250</v>
       </c>
       <c r="AH28" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI28" t="n">
         <v>6</v>
@@ -5569,16 +5569,16 @@
         <v>9</v>
       </c>
       <c r="AK28" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AL28" t="n">
         <v>13</v>
       </c>
       <c r="AM28" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN28" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AO28" t="n">
         <v>41</v>
@@ -5611,10 +5611,10 @@
         <v>7</v>
       </c>
       <c r="AY28" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ28" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA28" t="n">
         <v>41</v>
@@ -9665,28 +9665,28 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H51" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I51" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J51" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="K51" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L51" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M51" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N51" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="O51" t="n">
         <v>1.33</v>
@@ -9695,10 +9695,10 @@
         <v>3.25</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R51" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S51" t="n">
         <v>1.44</v>
@@ -9722,28 +9722,28 @@
         <v>8.5</v>
       </c>
       <c r="Z51" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA51" t="n">
         <v>15</v>
       </c>
       <c r="AB51" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC51" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD51" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE51" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF51" t="n">
         <v>67</v>
       </c>
       <c r="AG51" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AH51" t="n">
         <v>12</v>
@@ -9755,7 +9755,7 @@
         <v>17</v>
       </c>
       <c r="AK51" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL51" t="n">
         <v>41</v>
@@ -9764,7 +9764,7 @@
         <v>51</v>
       </c>
       <c r="AN51" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO51" t="n">
         <v>8.5</v>
@@ -9773,7 +9773,7 @@
         <v>21</v>
       </c>
       <c r="AQ51" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR51" t="n">
         <v>51</v>
@@ -9794,7 +9794,7 @@
         <v>7</v>
       </c>
       <c r="AX51" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY51" t="n">
         <v>41</v>
@@ -14597,16 +14597,16 @@
         <v>3.6</v>
       </c>
       <c r="M78" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N78" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O78" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P78" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q78" t="n">
         <v>2.5</v>
@@ -14657,7 +14657,7 @@
         <v>67</v>
       </c>
       <c r="AG78" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AH78" t="n">
         <v>7</v>
@@ -14943,145 +14943,145 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="H80" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I80" t="n">
-        <v>5.7</v>
+        <v>6.5</v>
       </c>
       <c r="J80" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="K80" t="n">
         <v>2.15</v>
       </c>
       <c r="L80" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="M80" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N80" t="n">
-        <v>7.9</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="O80" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P80" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="R80" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S80" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="T80" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="U80" t="n">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="V80" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="W80" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="X80" t="n">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="Y80" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z80" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA80" t="n">
         <v>13.5</v>
       </c>
       <c r="AB80" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC80" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AD80" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="AE80" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AF80" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AG80" t="n">
         <v>900</v>
       </c>
       <c r="AH80" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AI80" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AJ80" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>150</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP80" t="n">
         <v>18.5</v>
       </c>
-      <c r="AK80" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL80" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM80" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN80" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AO80" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AP80" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AQ80" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AR80" t="n">
         <v>60</v>
       </c>
       <c r="AS80" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT80" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="AU80" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AV80" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AW80" t="n">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="AX80" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AY80" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AZ80" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="BA80" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BB80" t="n">
         <v>500</v>
